--- a/omari.xlsx
+++ b/omari.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.10949994845946</v>
+        <v>19.17414286193574</v>
       </c>
       <c r="C2">
-        <v>0.01989898557057974</v>
+        <v>0.04082751926681658</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.14036586547051</v>
+        <v>19.32462622680661</v>
       </c>
       <c r="C3">
-        <v>0.03150641019277137</v>
+        <v>0.0182554760258942</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.35350588308177</v>
+        <v>19.4523903753784</v>
       </c>
       <c r="C4">
-        <v>0.0427815972699284</v>
+        <v>0.01428008741948812</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90165955857668</v>
+        <v>19.71257815941242</v>
       </c>
       <c r="C5">
-        <v>0.04771070665329466</v>
+        <v>0.006750828438277102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.49750775661778</v>
+        <v>18.51023899128353</v>
       </c>
       <c r="C6">
-        <v>0.01646169056332331</v>
+        <v>0.005525493055644999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.41216505751041</v>
+        <v>19.69073195158821</v>
       </c>
       <c r="C7">
-        <v>0.006082135258135931</v>
+        <v>0.007135034239565581</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.44359374558056</v>
+        <v>19.64363573989806</v>
       </c>
       <c r="C8">
-        <v>0.009684392266897105</v>
+        <v>0.04492496057441846</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.91160360923981</v>
+        <v>19.79451550805065</v>
       </c>
       <c r="C9">
-        <v>0.03128481905744961</v>
+        <v>0.04542148700688575</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.02055276755102</v>
+        <v>19.17351001330372</v>
       </c>
       <c r="C10">
-        <v>0.04617839765230609</v>
+        <v>0.02283105422082632</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55660494557488</v>
+        <v>18.81238937442287</v>
       </c>
       <c r="C11">
-        <v>0.02496834393483684</v>
+        <v>0.0266133827222358</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.04858847552036</v>
+        <v>18.6395000300849</v>
       </c>
       <c r="C12">
-        <v>0.04939521973918663</v>
+        <v>0.02256744863362941</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.12053461531221</v>
+        <v>19.15399683046121</v>
       </c>
       <c r="C13">
-        <v>0.026516049484893</v>
+        <v>0.03519494615057552</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.73829705804341</v>
+        <v>18.90996279517862</v>
       </c>
       <c r="C14">
-        <v>0.0221658241482357</v>
+        <v>0.02092984840003028</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.54301030875673</v>
+        <v>19.91853106694748</v>
       </c>
       <c r="C15">
-        <v>0.01316569986053747</v>
+        <v>0.008570689113941113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.29471088237889</v>
+        <v>19.7634980335802</v>
       </c>
       <c r="C16">
-        <v>0.04453235347744942</v>
+        <v>0.04636160602398582</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.85825367117498</v>
+        <v>19.52061123412518</v>
       </c>
       <c r="C17">
-        <v>0.03265061967927174</v>
+        <v>0.04456972117487532</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.94737971381939</v>
+        <v>19.07552107810798</v>
       </c>
       <c r="C18">
-        <v>0.04017717641400344</v>
+        <v>0.0225341323332834</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.43390769421104</v>
+        <v>19.19082354650743</v>
       </c>
       <c r="C19">
-        <v>0.016839512448199</v>
+        <v>0.01382496404438888</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.24054532519368</v>
+        <v>18.77528452331201</v>
       </c>
       <c r="C20">
-        <v>0.008388429428884816</v>
+        <v>0.03956715709908554</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.92065574060803</v>
+        <v>19.70330197069519</v>
       </c>
       <c r="C21">
-        <v>0.01575087842726268</v>
+        <v>0.014654329239391</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.79771061471287</v>
+        <v>18.07508556382903</v>
       </c>
       <c r="C22">
-        <v>0.04727537638022877</v>
+        <v>0.03785012027931988</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9187021634586</v>
+        <v>19.28328886228498</v>
       </c>
       <c r="C23">
-        <v>0.009908219257289354</v>
+        <v>0.0281357643226378</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.23602592519916</v>
+        <v>19.74142011276308</v>
       </c>
       <c r="C24">
-        <v>0.02566183782747446</v>
+        <v>0.0243813886502191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.82221488870709</v>
+        <v>19.12158439686046</v>
       </c>
       <c r="C25">
-        <v>0.04313989476246402</v>
+        <v>0.0245527129929037</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.33925679966186</v>
+        <v>18.51690982607758</v>
       </c>
       <c r="C26">
-        <v>0.01439127290696995</v>
+        <v>0.02234303111493188</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19.74838207680537</v>
+        <v>18.17944053235186</v>
       </c>
       <c r="C27">
-        <v>0.01091195958721497</v>
+        <v>0.02364281256785566</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19.50904952371629</v>
+        <v>19.4025228852089</v>
       </c>
       <c r="C28">
-        <v>0.02080163439909557</v>
+        <v>0.02788746312213636</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.27423144136646</v>
+        <v>19.78421427204196</v>
       </c>
       <c r="C29">
-        <v>0.04966160557807429</v>
+        <v>0.03459549115201292</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>19.93901481991223</v>
+        <v>18.56136630164001</v>
       </c>
       <c r="C30">
-        <v>0.04368492764118745</v>
+        <v>0.0426629448612818</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>18.77069019641845</v>
+        <v>19.44676561697348</v>
       </c>
       <c r="C31">
-        <v>0.01842171135860805</v>
+        <v>0.01302683564695949</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>19.46828724924285</v>
+        <v>18.86820142276741</v>
       </c>
       <c r="C32">
-        <v>0.01671312420400831</v>
+        <v>0.0146197640502693</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.86521767508635</v>
+        <v>18.9038525726833</v>
       </c>
       <c r="C33">
-        <v>0.04021036215229656</v>
+        <v>0.01080773830665165</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18.16507353108782</v>
+        <v>19.02189568304803</v>
       </c>
       <c r="C34">
-        <v>0.01573355601008308</v>
+        <v>0.005604675339645846</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>19.24242446825136</v>
+        <v>18.95371746463571</v>
       </c>
       <c r="C35">
-        <v>0.04869469826964663</v>
+        <v>0.03828291813266538</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>19.30142162295423</v>
+        <v>19.56561262486468</v>
       </c>
       <c r="C36">
-        <v>0.008288085728853889</v>
+        <v>0.02524159990136586</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>19.58332807002978</v>
+        <v>19.91073543835434</v>
       </c>
       <c r="C37">
-        <v>0.03633052310392943</v>
+        <v>0.04872907878551733</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>18.84173332393383</v>
+        <v>19.47019464354363</v>
       </c>
       <c r="C38">
-        <v>0.02807679280762993</v>
+        <v>0.02385610269409408</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>19.72093122676166</v>
+        <v>19.89754948580867</v>
       </c>
       <c r="C39">
-        <v>0.0431384623157443</v>
+        <v>0.0161463833942047</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18.18032695974003</v>
+        <v>19.69235258299722</v>
       </c>
       <c r="C40">
-        <v>0.04736429071426041</v>
+        <v>0.02098630749306303</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>19.66782922274828</v>
+        <v>19.56130014965633</v>
       </c>
       <c r="C41">
-        <v>0.02143254023911208</v>
+        <v>0.01804767866937031</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>18.99822613912629</v>
+        <v>18.47344415642419</v>
       </c>
       <c r="C42">
-        <v>0.03201506545914434</v>
+        <v>0.005892887480002926</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>19.58761669747213</v>
+        <v>18.16096236826424</v>
       </c>
       <c r="C43">
-        <v>0.04391659015484643</v>
+        <v>0.03027258694724817</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>18.37119694967467</v>
+        <v>18.47415222882611</v>
       </c>
       <c r="C44">
-        <v>0.01378570075666861</v>
+        <v>0.02594443310216887</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>18.07044086366045</v>
+        <v>18.49561485307855</v>
       </c>
       <c r="C45">
-        <v>0.01888004470755416</v>
+        <v>0.01233760640940086</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>19.12899178064533</v>
+        <v>19.31017827485217</v>
       </c>
       <c r="C46">
-        <v>0.01368387181069079</v>
+        <v>0.03985291118903077</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>18.40831495540758</v>
+        <v>18.57345302494315</v>
       </c>
       <c r="C47">
-        <v>0.03154455230912822</v>
+        <v>0.02479383745226142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>18.55233763799019</v>
+        <v>19.44091448544193</v>
       </c>
       <c r="C48">
-        <v>0.03164596314924516</v>
+        <v>0.0231589595511494</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>19.91355997176068</v>
+        <v>19.94823504101517</v>
       </c>
       <c r="C49">
-        <v>0.03326018790880875</v>
+        <v>0.04211250945318393</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>19.42559870178705</v>
+        <v>18.91038359937773</v>
       </c>
       <c r="C50">
-        <v>0.03912841893396129</v>
+        <v>0.02522891135905583</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>18.9309024258215</v>
+        <v>19.58037015308012</v>
       </c>
       <c r="C51">
-        <v>0.02419003497465046</v>
+        <v>0.0345237908368634</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>18.65666920239357</v>
+        <v>19.35701397787511</v>
       </c>
       <c r="C52">
-        <v>0.006714568129935719</v>
+        <v>0.01121646354781962</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>18.92732228774545</v>
+        <v>18.9238381470411</v>
       </c>
       <c r="C53">
-        <v>0.02647897389365721</v>
+        <v>0.0315947754543665</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>19.04654030764511</v>
+        <v>18.72451340198707</v>
       </c>
       <c r="C54">
-        <v>0.009482754978606303</v>
+        <v>0.03579573589082066</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.31500252834496</v>
+        <v>19.1887883432551</v>
       </c>
       <c r="C55">
-        <v>0.0480797038891129</v>
+        <v>0.01675364116937518</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18.58941558909642</v>
+        <v>19.27954674505471</v>
       </c>
       <c r="C56">
-        <v>0.03983647941514205</v>
+        <v>0.04089536301571059</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>18.91818466272802</v>
+        <v>18.56022112999127</v>
       </c>
       <c r="C57">
-        <v>0.04948637730710056</v>
+        <v>0.02175740958180367</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>19.01478839122677</v>
+        <v>19.64778928321422</v>
       </c>
       <c r="C58">
-        <v>0.0376996763531835</v>
+        <v>0.03255343333428403</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>18.1440611585878</v>
+        <v>18.79523158588152</v>
       </c>
       <c r="C59">
-        <v>0.0218907868855426</v>
+        <v>0.0192253890205419</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.18343917914333</v>
+        <v>19.42373047299462</v>
       </c>
       <c r="C60">
-        <v>0.01609980814281311</v>
+        <v>0.02960483211866444</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>19.15117624241936</v>
+        <v>18.86851099560161</v>
       </c>
       <c r="C61">
-        <v>0.04112137343911232</v>
+        <v>0.04724544215440891</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>19.89656454578025</v>
+        <v>19.32838147040799</v>
       </c>
       <c r="C62">
-        <v>0.02033836690735539</v>
+        <v>0.0370235011311823</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>19.356518372595</v>
+        <v>19.68759474581081</v>
       </c>
       <c r="C63">
-        <v>0.02446420158273807</v>
+        <v>0.01591821752048733</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>18.73759455011418</v>
+        <v>19.96477295979849</v>
       </c>
       <c r="C64">
-        <v>0.0153916766579256</v>
+        <v>0.04879243632477673</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18.81871594878634</v>
+        <v>18.16932883255354</v>
       </c>
       <c r="C65">
-        <v>0.04155506696123271</v>
+        <v>0.005231285215887767</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>18.0779554801286</v>
+        <v>18.59707067813119</v>
       </c>
       <c r="C66">
-        <v>0.02256958625987387</v>
+        <v>0.04660018126479416</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>18.57143581636028</v>
+        <v>18.52972427081549</v>
       </c>
       <c r="C67">
-        <v>0.04497862639333845</v>
+        <v>0.02982878948659424</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.99403408925097</v>
+        <v>19.2998813901715</v>
       </c>
       <c r="C68">
-        <v>0.005743411614091143</v>
+        <v>0.02010097709625129</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>19.59830944448513</v>
+        <v>19.44459885779943</v>
       </c>
       <c r="C69">
-        <v>0.02230447928387384</v>
+        <v>0.02900386646304656</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>18.08936064398245</v>
+        <v>18.68413923863584</v>
       </c>
       <c r="C70">
-        <v>0.02448382206949667</v>
+        <v>0.04407178632052633</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>19.65275679479903</v>
+        <v>18.9395493161241</v>
       </c>
       <c r="C71">
-        <v>0.02903764118978531</v>
+        <v>0.04697295981799433</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>18.40413428897959</v>
+        <v>18.22416490541756</v>
       </c>
       <c r="C72">
-        <v>0.04901926136625964</v>
+        <v>0.03239857780392377</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>19.37747420267512</v>
+        <v>18.63547270261711</v>
       </c>
       <c r="C73">
-        <v>0.02652649299261679</v>
+        <v>0.01864833539308804</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>19.49243404804616</v>
+        <v>18.26333891613748</v>
       </c>
       <c r="C74">
-        <v>0.04373385481489444</v>
+        <v>0.04592036739861156</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>18.94153846018571</v>
+        <v>19.8381542202269</v>
       </c>
       <c r="C75">
-        <v>0.02681439481540825</v>
+        <v>0.04260625154223101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>18.10347049349377</v>
+        <v>18.8987185474285</v>
       </c>
       <c r="C76">
-        <v>0.03191845885899802</v>
+        <v>0.006072560555131866</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>19.53119873378412</v>
+        <v>18.95021321095944</v>
       </c>
       <c r="C77">
-        <v>0.01149407283738937</v>
+        <v>0.04626138765685139</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>19.58031743665921</v>
+        <v>18.53217520091648</v>
       </c>
       <c r="C78">
-        <v>0.04247822089299987</v>
+        <v>0.02815794026579899</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>18.79930095781081</v>
+        <v>18.580904832237</v>
       </c>
       <c r="C79">
-        <v>0.02246718828523357</v>
+        <v>0.01984301496979027</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>19.79374231019684</v>
+        <v>19.14198885399091</v>
       </c>
       <c r="C80">
-        <v>0.03647474413825998</v>
+        <v>0.01850190063406992</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>19.0779536533932</v>
+        <v>18.20690562038637</v>
       </c>
       <c r="C81">
-        <v>0.01293751673536735</v>
+        <v>0.02936841325681369</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>18.80303246642882</v>
+        <v>18.86677593328559</v>
       </c>
       <c r="C82">
-        <v>0.04358530130933004</v>
+        <v>0.01267440183615109</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>19.1305235017734</v>
+        <v>19.25041271726322</v>
       </c>
       <c r="C83">
-        <v>0.02594658846961647</v>
+        <v>0.0138045684006279</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>18.35724484819604</v>
+        <v>18.71907448947259</v>
       </c>
       <c r="C84">
-        <v>0.02461647307441121</v>
+        <v>0.02653414948480837</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>18.35368336701695</v>
+        <v>18.05703035543466</v>
       </c>
       <c r="C85">
-        <v>0.02934180370560442</v>
+        <v>0.02581296089758924</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>18.56289567494711</v>
+        <v>19.210343940023</v>
       </c>
       <c r="C86">
-        <v>0.0184191014532475</v>
+        <v>0.02363720971467797</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>18.63454460031635</v>
+        <v>19.16853025947482</v>
       </c>
       <c r="C87">
-        <v>0.01294544427843343</v>
+        <v>0.03077663861788286</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>19.08254658979201</v>
+        <v>19.30869722380452</v>
       </c>
       <c r="C88">
-        <v>0.03733120929653408</v>
+        <v>0.04857789963716886</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>19.04418216098886</v>
+        <v>18.8072046641985</v>
       </c>
       <c r="C89">
-        <v>0.01916314455076129</v>
+        <v>0.03905378373025729</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>18.35137347176775</v>
+        <v>19.22983024095057</v>
       </c>
       <c r="C90">
-        <v>0.01553295614461201</v>
+        <v>0.0388410407325649</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>18.04529666862637</v>
+        <v>18.57727221797746</v>
       </c>
       <c r="C91">
-        <v>0.02889547529605269</v>
+        <v>0.02449793725201177</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.37690504322891</v>
+        <v>18.19461919656051</v>
       </c>
       <c r="C92">
-        <v>0.01501182531037944</v>
+        <v>0.04393592695825994</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>18.24730585544682</v>
+        <v>18.06499548728483</v>
       </c>
       <c r="C93">
-        <v>0.02631383104972096</v>
+        <v>0.04255687703196025</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>19.96072058598841</v>
+        <v>18.62506890628825</v>
       </c>
       <c r="C94">
-        <v>0.009959944796782503</v>
+        <v>0.009300680901424682</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>18.60611603393947</v>
+        <v>19.46595102009562</v>
       </c>
       <c r="C95">
-        <v>0.04723866134807294</v>
+        <v>0.03727619262324957</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>18.02092929863435</v>
+        <v>19.33773947292464</v>
       </c>
       <c r="C96">
-        <v>0.0097692593330778</v>
+        <v>0.0233146676687309</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>18.52936122493757</v>
+        <v>18.30509600875214</v>
       </c>
       <c r="C97">
-        <v>0.02620453311748723</v>
+        <v>0.04823060829793131</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>18.60113507698626</v>
+        <v>19.21857323700263</v>
       </c>
       <c r="C98">
-        <v>0.0441673174509107</v>
+        <v>0.03597899116472987</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.05284395086334</v>
+        <v>18.46956077493071</v>
       </c>
       <c r="C99">
-        <v>0.02395206703040093</v>
+        <v>0.01430235442425275</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>18.52362823951317</v>
+        <v>18.35701050461521</v>
       </c>
       <c r="C100">
-        <v>0.03915771635621482</v>
+        <v>0.007362897961933492</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.37659067928938</v>
+        <v>19.45974916065632</v>
       </c>
       <c r="C101">
-        <v>0.0342841114012067</v>
+        <v>0.02908470020445182</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>19.61283109939756</v>
+        <v>18.67804659729984</v>
       </c>
       <c r="C102">
-        <v>0.01781254064447544</v>
+        <v>0.0116097894142714</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>19.47360119493925</v>
+        <v>18.96125808432004</v>
       </c>
       <c r="C103">
-        <v>0.006291132059064139</v>
+        <v>0.02903615721009238</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>19.07627962860953</v>
+        <v>19.12821444400374</v>
       </c>
       <c r="C104">
-        <v>0.03847590486440437</v>
+        <v>0.04516752896907357</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>19.50615980483568</v>
+        <v>19.42202888944254</v>
       </c>
       <c r="C105">
-        <v>0.03721358778797792</v>
+        <v>0.02107577646526133</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>19.821860204939</v>
+        <v>18.42478727314562</v>
       </c>
       <c r="C106">
-        <v>0.03020201992383332</v>
+        <v>0.01055308873704099</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>19.50677310005496</v>
+        <v>18.70545838534027</v>
       </c>
       <c r="C107">
-        <v>0.03774706471188511</v>
+        <v>0.03401750910315256</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18.39906121918709</v>
+        <v>19.02733721499463</v>
       </c>
       <c r="C108">
-        <v>0.0238521258056806</v>
+        <v>0.006156666519684429</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>19.31581972709895</v>
+        <v>18.47361914916448</v>
       </c>
       <c r="C109">
-        <v>0.03595087314535086</v>
+        <v>0.04813107771664287</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.94799808189523</v>
+        <v>19.27037524634011</v>
       </c>
       <c r="C110">
-        <v>0.03346090332911052</v>
+        <v>0.04465541721354721</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>19.71785560300561</v>
+        <v>18.41818527754085</v>
       </c>
       <c r="C111">
-        <v>0.03055789099512151</v>
+        <v>0.01889466635130872</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>18.22950149632046</v>
+        <v>19.68061623450056</v>
       </c>
       <c r="C112">
-        <v>0.04453127162938275</v>
+        <v>0.01619252134734933</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>19.17352551449134</v>
+        <v>19.28930579589717</v>
       </c>
       <c r="C113">
-        <v>0.04427173488834318</v>
+        <v>0.04558119925332103</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19.63457404286696</v>
+        <v>18.51545532587254</v>
       </c>
       <c r="C114">
-        <v>0.04846131167257781</v>
+        <v>0.04154571789837743</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18.1406876088924</v>
+        <v>18.32151752892615</v>
       </c>
       <c r="C115">
-        <v>0.04928383769900264</v>
+        <v>0.04473100600592975</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.5441579561782</v>
+        <v>18.50385287713375</v>
       </c>
       <c r="C116">
-        <v>0.02566113702606189</v>
+        <v>0.03376216082222349</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>18.04084906821719</v>
+        <v>19.39788809095763</v>
       </c>
       <c r="C117">
-        <v>0.04892339564002758</v>
+        <v>0.04192716164775681</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>18.98861747688067</v>
+        <v>19.69636929767323</v>
       </c>
       <c r="C118">
-        <v>0.02722688574397814</v>
+        <v>0.04760938451102301</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>19.30135188750928</v>
+        <v>18.65940270512392</v>
       </c>
       <c r="C119">
-        <v>0.04802223965053463</v>
+        <v>0.00536534784416501</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>19.11889951756813</v>
+        <v>19.5887521520096</v>
       </c>
       <c r="C120">
-        <v>0.01828393492433282</v>
+        <v>0.04360425032303694</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.69389321802975</v>
+        <v>19.69297340070412</v>
       </c>
       <c r="C121">
-        <v>0.04174006533884261</v>
+        <v>0.02559154142461951</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.15175791644084</v>
+        <v>19.6086699779971</v>
       </c>
       <c r="C122">
-        <v>0.04405244544869415</v>
+        <v>0.04699440651410652</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.37449436025645</v>
+        <v>18.36833789005666</v>
       </c>
       <c r="C123">
-        <v>0.02616293393261828</v>
+        <v>0.02326092579410331</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.90243864149811</v>
+        <v>19.07205975216639</v>
       </c>
       <c r="C124">
-        <v>0.0281267820498299</v>
+        <v>0.0438610733466424</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.80200344173749</v>
+        <v>19.11683065049563</v>
       </c>
       <c r="C125">
-        <v>0.04919253826645376</v>
+        <v>0.01152477496119197</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.85846709450238</v>
+        <v>18.82313144029484</v>
       </c>
       <c r="C126">
-        <v>0.0365163644538556</v>
+        <v>0.01613830909316693</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>18.83522877229298</v>
+        <v>19.55926265288683</v>
       </c>
       <c r="C127">
-        <v>0.01564238398193918</v>
+        <v>0.01919035147073733</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>19.74331480346846</v>
+        <v>18.2740033607093</v>
       </c>
       <c r="C128">
-        <v>0.006935102934295379</v>
+        <v>0.03058020294677134</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>18.49990501065842</v>
+        <v>18.28894451087462</v>
       </c>
       <c r="C129">
-        <v>0.01017111740116921</v>
+        <v>0.04462657169015669</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>18.06328510289961</v>
+        <v>18.1687811579036</v>
       </c>
       <c r="C130">
-        <v>0.04051544989372523</v>
+        <v>0.01593401149552839</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>18.08105577736761</v>
+        <v>18.19349048936242</v>
       </c>
       <c r="C131">
-        <v>0.0372684130522842</v>
+        <v>0.02734073038143851</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.26316473024549</v>
+        <v>19.35907004661465</v>
       </c>
       <c r="C132">
-        <v>0.02312306057811856</v>
+        <v>0.00630908968068576</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>19.6052539935699</v>
+        <v>18.69894084011075</v>
       </c>
       <c r="C133">
-        <v>0.01344982736808149</v>
+        <v>0.04560676066589455</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>18.19992511954316</v>
+        <v>18.71539134561101</v>
       </c>
       <c r="C134">
-        <v>0.03444985044959405</v>
+        <v>0.02969909266859813</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>18.29277028968977</v>
+        <v>18.15809792355671</v>
       </c>
       <c r="C135">
-        <v>0.04178193849724762</v>
+        <v>0.0144859464228512</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.66838241261302</v>
+        <v>19.11476109300639</v>
       </c>
       <c r="C136">
-        <v>0.02560942127354519</v>
+        <v>0.009517662342712143</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>19.55694769214378</v>
+        <v>19.88492146295321</v>
       </c>
       <c r="C137">
-        <v>0.008177478572201628</v>
+        <v>0.02305094804422011</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.82031814847846</v>
+        <v>18.0161927910722</v>
       </c>
       <c r="C138">
-        <v>0.00500729776221511</v>
+        <v>0.0310806318892089</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>19.91967733830948</v>
+        <v>19.53803142636071</v>
       </c>
       <c r="C139">
-        <v>0.005215081035756115</v>
+        <v>0.007494948719259325</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.59663461624224</v>
+        <v>19.47287703685437</v>
       </c>
       <c r="C140">
-        <v>0.0145666776221254</v>
+        <v>0.0430177686339286</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>18.63322878518716</v>
+        <v>18.12062986319753</v>
       </c>
       <c r="C141">
-        <v>0.0248511106772889</v>
+        <v>0.01172170733102196</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>19.67471736563898</v>
+        <v>18.18256447203789</v>
       </c>
       <c r="C142">
-        <v>0.01073333571006833</v>
+        <v>0.0249720134203309</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.3175630769748</v>
+        <v>18.65053612941573</v>
       </c>
       <c r="C143">
-        <v>0.01412579476152005</v>
+        <v>0.01503418062039221</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>19.08638627973278</v>
+        <v>18.90307703925009</v>
       </c>
       <c r="C144">
-        <v>0.04073117064488548</v>
+        <v>0.04829459363494217</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>18.04511107924355</v>
+        <v>19.85029016986652</v>
       </c>
       <c r="C145">
-        <v>0.04460598780288223</v>
+        <v>0.02957403410237434</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>18.45583115290104</v>
+        <v>18.68526245451338</v>
       </c>
       <c r="C146">
-        <v>0.03326338024741425</v>
+        <v>0.04792057500756792</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>18.2653801903382</v>
+        <v>19.53392312144808</v>
       </c>
       <c r="C147">
-        <v>0.01047501744923125</v>
+        <v>0.01196997672106327</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>19.85202805614184</v>
+        <v>19.52191651402516</v>
       </c>
       <c r="C148">
-        <v>0.02507388311555712</v>
+        <v>0.01720025165681647</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>18.69706862865873</v>
+        <v>18.57997128537239</v>
       </c>
       <c r="C149">
-        <v>0.006312843245962154</v>
+        <v>0.01579184985358411</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.06095277778385</v>
+        <v>18.76085771001727</v>
       </c>
       <c r="C150">
-        <v>0.04867400425298863</v>
+        <v>0.007843760999941708</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>18.56154044816552</v>
+        <v>18.84150373314563</v>
       </c>
       <c r="C151">
-        <v>0.01148074794247316</v>
+        <v>0.02816242502742125</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.57179541127911</v>
+        <v>19.9964910136121</v>
       </c>
       <c r="C152">
-        <v>0.03915591922761814</v>
+        <v>0.03584470952279754</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>18.54879217517877</v>
+        <v>19.8497615556618</v>
       </c>
       <c r="C153">
-        <v>0.01147620383029219</v>
+        <v>0.04668037683127333</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.04668413761905</v>
+        <v>19.97091094404347</v>
       </c>
       <c r="C154">
-        <v>0.0348296364782547</v>
+        <v>0.009626068563491449</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>18.12779089658809</v>
+        <v>18.7678904447218</v>
       </c>
       <c r="C155">
-        <v>0.03214417417056328</v>
+        <v>0.0246050033335961</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>19.04316308508351</v>
+        <v>18.83362115370859</v>
       </c>
       <c r="C156">
-        <v>0.03648703451872616</v>
+        <v>0.009284051450239337</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.40682905221475</v>
+        <v>18.51454522759354</v>
       </c>
       <c r="C157">
-        <v>0.01517486298114234</v>
+        <v>0.04441715978361732</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>19.25363617563849</v>
+        <v>18.24537510005694</v>
       </c>
       <c r="C158">
-        <v>0.01348157902687934</v>
+        <v>0.0469502550899993</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>19.40536003644777</v>
+        <v>18.50271978599022</v>
       </c>
       <c r="C159">
-        <v>0.0225089053653771</v>
+        <v>0.0200484572206325</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>18.93090824345423</v>
+        <v>18.27652006272811</v>
       </c>
       <c r="C160">
-        <v>0.04387834286888884</v>
+        <v>0.04321140549276134</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>18.24855975370478</v>
+        <v>19.43114709708606</v>
       </c>
       <c r="C161">
-        <v>0.01818771601963821</v>
+        <v>0.01414210282903017</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>18.39730878461556</v>
+        <v>18.6082351331292</v>
       </c>
       <c r="C162">
-        <v>0.01931726430919007</v>
+        <v>0.04252448786759205</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>19.59061630559208</v>
+        <v>18.28544112577067</v>
       </c>
       <c r="C163">
-        <v>0.04476214403734143</v>
+        <v>0.0381642640619541</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>19.91789654826162</v>
+        <v>18.35135741219833</v>
       </c>
       <c r="C164">
-        <v>0.009747561672120469</v>
+        <v>0.02052372562521773</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>18.95588922795802</v>
+        <v>19.25450049125288</v>
       </c>
       <c r="C165">
-        <v>0.01635452183099569</v>
+        <v>0.04933796115278909</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>18.98604450846893</v>
+        <v>19.16441747642266</v>
       </c>
       <c r="C166">
-        <v>0.01294578093973664</v>
+        <v>0.01473264113047176</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>18.10354201695571</v>
+        <v>19.52140210878094</v>
       </c>
       <c r="C167">
-        <v>0.04897149052575712</v>
+        <v>0.01366986590798957</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>18.01005990760819</v>
+        <v>19.85239730572564</v>
       </c>
       <c r="C168">
-        <v>0.0191576110402938</v>
+        <v>0.03527022264815217</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.33063176010484</v>
+        <v>18.0977650437897</v>
       </c>
       <c r="C169">
-        <v>0.02439478631329566</v>
+        <v>0.02063738455714077</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>18.0915897152521</v>
+        <v>19.35620693952255</v>
       </c>
       <c r="C170">
-        <v>0.02249952309560771</v>
+        <v>0.02791764858826219</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.39663433349994</v>
+        <v>18.03267555914044</v>
       </c>
       <c r="C171">
-        <v>0.03863622844562765</v>
+        <v>0.03746444668712647</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.73233178212898</v>
+        <v>18.05313060670397</v>
       </c>
       <c r="C172">
-        <v>0.03994872923520164</v>
+        <v>0.04440051189636209</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>18.51913222918921</v>
+        <v>19.60383624471183</v>
       </c>
       <c r="C173">
-        <v>0.03291494081053329</v>
+        <v>0.006461403133329308</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>18.10766113488675</v>
+        <v>19.33549323456708</v>
       </c>
       <c r="C174">
-        <v>0.03488023474486483</v>
+        <v>0.01854011393542526</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>18.90664534303763</v>
+        <v>19.9536670243211</v>
       </c>
       <c r="C175">
-        <v>0.03348649499906684</v>
+        <v>0.04902696509258352</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.14113126592613</v>
+        <v>18.99815354935876</v>
       </c>
       <c r="C176">
-        <v>0.005793581048473151</v>
+        <v>0.02991196952652114</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.0137882457127</v>
+        <v>18.36393640580577</v>
       </c>
       <c r="C177">
-        <v>0.03496889121888431</v>
+        <v>0.02375034198171395</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.99082800954619</v>
+        <v>19.69732727572788</v>
       </c>
       <c r="C178">
-        <v>0.03040610901766959</v>
+        <v>0.03828771767217933</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.24692164520076</v>
+        <v>18.1980947843526</v>
       </c>
       <c r="C179">
-        <v>0.02861219134417308</v>
+        <v>0.02483904921989999</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.15084480505939</v>
+        <v>18.17270467185073</v>
       </c>
       <c r="C180">
-        <v>0.02616498963166045</v>
+        <v>0.02726698258420376</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.59709970094174</v>
+        <v>18.53129578215831</v>
       </c>
       <c r="C181">
-        <v>0.02137682041517377</v>
+        <v>0.007932479669198295</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19.82786071828196</v>
+        <v>18.34146395999721</v>
       </c>
       <c r="C182">
-        <v>0.0454547091670853</v>
+        <v>0.007678404480712972</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.39234072392057</v>
+        <v>19.44804209569462</v>
       </c>
       <c r="C183">
-        <v>0.009045117428490162</v>
+        <v>0.01965700540212349</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>19.34080719749135</v>
+        <v>18.01612982804178</v>
       </c>
       <c r="C184">
-        <v>0.04842094195634144</v>
+        <v>0.04284167296132957</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.19503556463692</v>
+        <v>19.92939853712589</v>
       </c>
       <c r="C185">
-        <v>0.03816528368303809</v>
+        <v>0.04010862875823135</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.85441494037913</v>
+        <v>18.37168049680724</v>
       </c>
       <c r="C186">
-        <v>0.04282686145957652</v>
+        <v>0.0480854810142829</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.09272759461701</v>
+        <v>19.32266623153169</v>
       </c>
       <c r="C187">
-        <v>0.006191163098057549</v>
+        <v>0.01294784004684803</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>18.14355244802529</v>
+        <v>19.56525083098045</v>
       </c>
       <c r="C188">
-        <v>0.03132971072948007</v>
+        <v>0.04722911336156687</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.54092317238473</v>
+        <v>18.86793244975221</v>
       </c>
       <c r="C189">
-        <v>0.03178329160916548</v>
+        <v>0.04179664610701092</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19.69256563010009</v>
+        <v>19.83834601029401</v>
       </c>
       <c r="C190">
-        <v>0.01114952483802163</v>
+        <v>0.006775838473134711</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>18.9375205027277</v>
+        <v>19.20045992354658</v>
       </c>
       <c r="C191">
-        <v>0.04520774603505871</v>
+        <v>0.04826553052936332</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.83592286203622</v>
+        <v>19.44768996175101</v>
       </c>
       <c r="C192">
-        <v>0.04800105984356184</v>
+        <v>0.02520415808759906</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.09469239264577</v>
+        <v>19.64692872970987</v>
       </c>
       <c r="C193">
-        <v>0.04328629330473337</v>
+        <v>0.02606349258977124</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>19.6879378834992</v>
+        <v>19.06027197186625</v>
       </c>
       <c r="C194">
-        <v>0.03124737118837318</v>
+        <v>0.018987147084492</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.77740737526324</v>
+        <v>18.19161786354633</v>
       </c>
       <c r="C195">
-        <v>0.02943790751788536</v>
+        <v>0.04500502077731319</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>18.14619854166867</v>
+        <v>19.18674829008677</v>
       </c>
       <c r="C196">
-        <v>0.0423973688584691</v>
+        <v>0.03012821950496246</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>19.73313015185657</v>
+        <v>19.17790105137096</v>
       </c>
       <c r="C197">
-        <v>0.02135600001509756</v>
+        <v>0.04834182305657453</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>18.76476029752968</v>
+        <v>19.57933189154003</v>
       </c>
       <c r="C198">
-        <v>0.01842723455128508</v>
+        <v>0.02183009194746405</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>18.34250309468084</v>
+        <v>19.94447931574032</v>
       </c>
       <c r="C199">
-        <v>0.017016135688619</v>
+        <v>0.01954032345094557</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>19.06506208232141</v>
+        <v>19.67258028743682</v>
       </c>
       <c r="C200">
-        <v>0.04024336270098253</v>
+        <v>0.03921580863393467</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>18.16022774917357</v>
+        <v>19.96045211701855</v>
       </c>
       <c r="C201">
-        <v>0.009633980911922985</v>
+        <v>0.03901676742666159</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>19.87728865906136</v>
+        <v>18.01904638422569</v>
       </c>
       <c r="C202">
-        <v>0.03556972925835387</v>
+        <v>0.01291565421362718</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>19.9187592359452</v>
+        <v>19.95059504149014</v>
       </c>
       <c r="C203">
-        <v>0.01672232072757994</v>
+        <v>0.03336734807863604</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>19.73466558382281</v>
+        <v>19.50144162128795</v>
       </c>
       <c r="C204">
-        <v>0.04805975397059772</v>
+        <v>0.03852527712732152</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>19.77086607319738</v>
+        <v>18.45563991982685</v>
       </c>
       <c r="C205">
-        <v>0.02207248476278069</v>
+        <v>0.00689222969043812</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>19.65297282968766</v>
+        <v>19.60014119150387</v>
       </c>
       <c r="C206">
-        <v>0.006880952966851797</v>
+        <v>0.03459192027816779</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>18.37522129008219</v>
+        <v>19.26273001851282</v>
       </c>
       <c r="C207">
-        <v>0.03521362916820645</v>
+        <v>0.04392504998416372</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>18.50606835534685</v>
+        <v>18.02677981255772</v>
       </c>
       <c r="C208">
-        <v>0.01479006650314463</v>
+        <v>0.04279378758154594</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>19.67471549375293</v>
+        <v>18.52331227878341</v>
       </c>
       <c r="C209">
-        <v>0.04042853035942776</v>
+        <v>0.04011999195702345</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.1116496557249</v>
+        <v>19.82745048965078</v>
       </c>
       <c r="C210">
-        <v>0.01628949698435585</v>
+        <v>0.04391073717188589</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>18.76723007082326</v>
+        <v>18.22876582063153</v>
       </c>
       <c r="C211">
-        <v>0.02000093975823017</v>
+        <v>0.04959411707237633</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>18.84482324837554</v>
+        <v>18.6141074887798</v>
       </c>
       <c r="C212">
-        <v>0.02273228555219074</v>
+        <v>0.03016382699731289</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>18.64114305655084</v>
+        <v>18.12685088482381</v>
       </c>
       <c r="C213">
-        <v>0.02502321330778499</v>
+        <v>0.03162719542433919</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>18.03519620974149</v>
+        <v>18.76677039410591</v>
       </c>
       <c r="C214">
-        <v>0.009069668785710069</v>
+        <v>0.01793995988678719</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>18.73358290652727</v>
+        <v>18.34053432467431</v>
       </c>
       <c r="C215">
-        <v>0.007273841850471582</v>
+        <v>0.01605416302435275</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>19.24894818849012</v>
+        <v>19.42455419866109</v>
       </c>
       <c r="C216">
-        <v>0.0313822258277431</v>
+        <v>0.04221100127401025</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>19.83263121814671</v>
+        <v>19.24286830914639</v>
       </c>
       <c r="C217">
-        <v>0.0391246611256915</v>
+        <v>0.02506870991421557</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>19.69631025401404</v>
+        <v>18.52597048096394</v>
       </c>
       <c r="C218">
-        <v>0.0299304436185628</v>
+        <v>0.02946944117005248</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>19.56832607523742</v>
+        <v>18.41577363863413</v>
       </c>
       <c r="C219">
-        <v>0.0442284707991043</v>
+        <v>0.02364144676520636</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>19.11596454151528</v>
+        <v>19.97927028906733</v>
       </c>
       <c r="C220">
-        <v>0.0267722895073969</v>
+        <v>0.02892022422592527</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>19.74186578329542</v>
+        <v>18.81943070626761</v>
       </c>
       <c r="C221">
-        <v>0.01059916416915249</v>
+        <v>0.0391632493706307</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>18.44414396923644</v>
+        <v>18.41699021813037</v>
       </c>
       <c r="C222">
-        <v>0.03220909544482942</v>
+        <v>0.0462384289644501</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>19.32150598846324</v>
+        <v>19.39036349547331</v>
       </c>
       <c r="C223">
-        <v>0.02364380791754784</v>
+        <v>0.04389221599051238</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>18.69152018135211</v>
+        <v>18.30190004872676</v>
       </c>
       <c r="C224">
-        <v>0.02425665194505578</v>
+        <v>0.02184022447780382</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>18.50152915449952</v>
+        <v>18.91252538027087</v>
       </c>
       <c r="C225">
-        <v>0.02299666033713594</v>
+        <v>0.00809711516550754</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>19.13433881354587</v>
+        <v>18.18688208812838</v>
       </c>
       <c r="C226">
-        <v>0.02230327996442984</v>
+        <v>0.03875228982350085</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>19.74334460881816</v>
+        <v>18.87154823839806</v>
       </c>
       <c r="C227">
-        <v>0.04864388728677457</v>
+        <v>0.01214879170519934</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>18.94129137470805</v>
+        <v>19.35676853455504</v>
       </c>
       <c r="C228">
-        <v>0.009455446486627194</v>
+        <v>0.030510573929555</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>18.29725705336117</v>
+        <v>19.31363955755015</v>
       </c>
       <c r="C229">
-        <v>0.04104075597932567</v>
+        <v>0.02983650734996617</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>19.85515195302169</v>
+        <v>19.40302975917005</v>
       </c>
       <c r="C230">
-        <v>0.03954746730363543</v>
+        <v>0.02269993859221039</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>18.1301647785075</v>
+        <v>19.25358667275704</v>
       </c>
       <c r="C231">
-        <v>0.04132405163667389</v>
+        <v>0.02585919983267492</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>19.11541995278021</v>
+        <v>18.54220879263145</v>
       </c>
       <c r="C232">
-        <v>0.02131600955615064</v>
+        <v>0.009596161148937913</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>18.18566236110482</v>
+        <v>18.26143787008108</v>
       </c>
       <c r="C233">
-        <v>0.04749541907191311</v>
+        <v>0.03808437113392271</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>19.65191783822186</v>
+        <v>19.56621212065615</v>
       </c>
       <c r="C234">
-        <v>0.01702232922604414</v>
+        <v>0.02187946905599671</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>18.29035645150897</v>
+        <v>19.48130976230205</v>
       </c>
       <c r="C235">
-        <v>0.01139145445159615</v>
+        <v>0.04521058106685905</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>18.57816992109104</v>
+        <v>18.27998035089631</v>
       </c>
       <c r="C236">
-        <v>0.01404034425058439</v>
+        <v>0.0378216375492474</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>18.69271367689469</v>
+        <v>18.80986906777298</v>
       </c>
       <c r="C237">
-        <v>0.02723678391863037</v>
+        <v>0.03355941305319117</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>18.32769100891506</v>
+        <v>19.11664803696747</v>
       </c>
       <c r="C238">
-        <v>0.03548343263906564</v>
+        <v>0.006223457597604072</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>18.24203375248077</v>
+        <v>18.83237894969592</v>
       </c>
       <c r="C239">
-        <v>0.0165689215404434</v>
+        <v>0.01191776599797317</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>18.10679723893848</v>
+        <v>18.37271594667457</v>
       </c>
       <c r="C240">
-        <v>0.01369614343619587</v>
+        <v>0.04610550534443116</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>19.10444001947779</v>
+        <v>19.8214803171469</v>
       </c>
       <c r="C241">
-        <v>0.01214202315023894</v>
+        <v>0.04606627021247593</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>18.04643059225763</v>
+        <v>18.39846395678416</v>
       </c>
       <c r="C242">
-        <v>0.008572174614256835</v>
+        <v>0.03510295784817909</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>18.15642725160881</v>
+        <v>18.61006463157973</v>
       </c>
       <c r="C243">
-        <v>0.04841861111068702</v>
+        <v>0.01260983186955459</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>18.80039406010011</v>
+        <v>19.00489259573591</v>
       </c>
       <c r="C244">
-        <v>0.0124989289639599</v>
+        <v>0.01076884429257548</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>19.43192588812136</v>
+        <v>18.47565476415583</v>
       </c>
       <c r="C245">
-        <v>0.03232816987606051</v>
+        <v>0.04724294159418679</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>18.14067767581709</v>
+        <v>18.69116988476933</v>
       </c>
       <c r="C246">
-        <v>0.02034022063175009</v>
+        <v>0.04704675235992204</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>19.23868508391152</v>
+        <v>19.27685550762469</v>
       </c>
       <c r="C247">
-        <v>0.02333464635033443</v>
+        <v>0.04140682056868879</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>19.89277709942051</v>
+        <v>18.68682370479554</v>
       </c>
       <c r="C248">
-        <v>0.0403029776127109</v>
+        <v>0.02184992426499584</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>18.43564983466081</v>
+        <v>19.32208448182931</v>
       </c>
       <c r="C249">
-        <v>0.03783841960508706</v>
+        <v>0.0156938431168126</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>18.85282548541689</v>
+        <v>19.27110518158159</v>
       </c>
       <c r="C250">
-        <v>0.01777754449630006</v>
+        <v>0.006094331269541247</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>18.40010481423316</v>
+        <v>18.3554080637345</v>
       </c>
       <c r="C251">
-        <v>0.01488326837956723</v>
+        <v>0.04161468367939303</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>19.65054015003499</v>
+        <v>19.09729261620918</v>
       </c>
       <c r="C252">
-        <v>0.04166413801669789</v>
+        <v>0.04847397489951286</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>19.52546092888015</v>
+        <v>18.44025611787929</v>
       </c>
       <c r="C253">
-        <v>0.02077635802898041</v>
+        <v>0.03815541887070305</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>19.68378371189693</v>
+        <v>18.43507426804403</v>
       </c>
       <c r="C254">
-        <v>0.03549583177069629</v>
+        <v>0.04609118728157304</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>18.40265493368795</v>
+        <v>19.10020379267581</v>
       </c>
       <c r="C255">
-        <v>0.03766794921613045</v>
+        <v>0.04977600280957767</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>19.15176535916352</v>
+        <v>18.84773205981818</v>
       </c>
       <c r="C256">
-        <v>0.03380755359058924</v>
+        <v>0.03483056511115718</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>19.82603460483667</v>
+        <v>18.52680066375537</v>
       </c>
       <c r="C257">
-        <v>0.04889965268856861</v>
+        <v>0.02603242450730711</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>18.15972027137129</v>
+        <v>19.10396171535693</v>
       </c>
       <c r="C258">
-        <v>0.04803736774604617</v>
+        <v>0.04612176259078183</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>18.046848663366</v>
+        <v>19.31608391628419</v>
       </c>
       <c r="C259">
-        <v>0.03186208485775002</v>
+        <v>0.04551085046271573</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>19.45482033599557</v>
+        <v>18.2468747845426</v>
       </c>
       <c r="C260">
-        <v>0.02394728884477642</v>
+        <v>0.04334458507335612</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>18.15375941981639</v>
+        <v>19.62834612304211</v>
       </c>
       <c r="C261">
-        <v>0.0201870808996473</v>
+        <v>0.01810524124077621</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>19.03193706580047</v>
+        <v>19.88246738216844</v>
       </c>
       <c r="C262">
-        <v>0.01718767773831018</v>
+        <v>0.04189575659815238</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>19.76971088705973</v>
+        <v>18.94353534746626</v>
       </c>
       <c r="C263">
-        <v>0.03482599284836618</v>
+        <v>0.01098854564417105</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>19.50063313846361</v>
+        <v>18.89824508699197</v>
       </c>
       <c r="C264">
-        <v>0.04782393149874107</v>
+        <v>0.0310294571570832</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>19.15232671439848</v>
+        <v>18.58645636304263</v>
       </c>
       <c r="C265">
-        <v>0.01248813128216109</v>
+        <v>0.04907736452768303</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>19.1590194770657</v>
+        <v>19.0419334966556</v>
       </c>
       <c r="C266">
-        <v>0.02519178360629685</v>
+        <v>0.04651720323117409</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>19.39622472536181</v>
+        <v>19.02029664986345</v>
       </c>
       <c r="C267">
-        <v>0.015058764824719</v>
+        <v>0.0123016155838743</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>18.92682965164883</v>
+        <v>19.72787041457276</v>
       </c>
       <c r="C268">
-        <v>0.02094605139391355</v>
+        <v>0.01779365553661394</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>19.11702554387434</v>
+        <v>18.9462747435718</v>
       </c>
       <c r="C269">
-        <v>0.0241721889839384</v>
+        <v>0.00811477641009889</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>19.89885330980278</v>
+        <v>19.56604501480391</v>
       </c>
       <c r="C270">
-        <v>0.02186880266315441</v>
+        <v>0.04102186905214714</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>19.24675442869884</v>
+        <v>19.54924434981719</v>
       </c>
       <c r="C271">
-        <v>0.01886447741207905</v>
+        <v>0.01009542561109381</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>19.87971991587941</v>
+        <v>18.05159049792973</v>
       </c>
       <c r="C272">
-        <v>0.005732584071932338</v>
+        <v>0.03097376476636146</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>18.30814992102874</v>
+        <v>18.63369150355265</v>
       </c>
       <c r="C273">
-        <v>0.03749238496766795</v>
+        <v>0.0201365300359465</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>19.56008723161412</v>
+        <v>19.61714591673481</v>
       </c>
       <c r="C274">
-        <v>0.02156498822023441</v>
+        <v>0.01662824010773775</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>19.07421443011862</v>
+        <v>19.51359935494518</v>
       </c>
       <c r="C275">
-        <v>0.008535344990344805</v>
+        <v>0.02944208463873906</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>18.75586973318822</v>
+        <v>19.14501855488882</v>
       </c>
       <c r="C276">
-        <v>0.0384116905800496</v>
+        <v>0.01010322389114543</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>19.64667470964161</v>
+        <v>18.1146820381811</v>
       </c>
       <c r="C277">
-        <v>0.03058436590494054</v>
+        <v>0.03120049200528933</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>19.39726806985076</v>
+        <v>19.26573099254668</v>
       </c>
       <c r="C278">
-        <v>0.01147129742686473</v>
+        <v>0.02075302444263971</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>19.06289146912881</v>
+        <v>19.45865118560845</v>
       </c>
       <c r="C279">
-        <v>0.03532721153926442</v>
+        <v>0.04191534463815126</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>19.29926086992894</v>
+        <v>18.1488730063954</v>
       </c>
       <c r="C280">
-        <v>0.04407089754194136</v>
+        <v>0.02415941738391736</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>18.44806551406038</v>
+        <v>19.37728438757814</v>
       </c>
       <c r="C281">
-        <v>0.04986200314126482</v>
+        <v>0.009701930057965949</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>19.48230361576681</v>
+        <v>19.44131581710737</v>
       </c>
       <c r="C282">
-        <v>0.03913278803304446</v>
+        <v>0.01481676650763128</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>19.77255525517758</v>
+        <v>18.30334330907919</v>
       </c>
       <c r="C283">
-        <v>0.02623636436308204</v>
+        <v>0.03326949835304154</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>18.43787370368924</v>
+        <v>18.16177058992599</v>
       </c>
       <c r="C284">
-        <v>0.02351741255463363</v>
+        <v>0.01116712121956891</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>19.50239133519848</v>
+        <v>18.06080510696323</v>
       </c>
       <c r="C285">
-        <v>0.02694360606680445</v>
+        <v>0.02942339640429153</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>18.20151999157758</v>
+        <v>18.87665319425601</v>
       </c>
       <c r="C286">
-        <v>0.0218950101003582</v>
+        <v>0.01064416363331301</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>19.81185296966781</v>
+        <v>18.9497176318718</v>
       </c>
       <c r="C287">
-        <v>0.009074210958213206</v>
+        <v>0.03721190706276655</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>18.02316671889692</v>
+        <v>19.35398981006075</v>
       </c>
       <c r="C288">
-        <v>0.0164234315770961</v>
+        <v>0.04561555854729744</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>18.41055117665606</v>
+        <v>19.06707210256143</v>
       </c>
       <c r="C289">
-        <v>0.01827469129343549</v>
+        <v>0.04709133771394344</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>19.04986131558752</v>
+        <v>19.81036109332477</v>
       </c>
       <c r="C290">
-        <v>0.04155513946257261</v>
+        <v>0.01771467051349561</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>18.05734610695311</v>
+        <v>19.15389766579909</v>
       </c>
       <c r="C291">
-        <v>0.03597021349152127</v>
+        <v>0.01519286843300487</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>19.68793531756624</v>
+        <v>19.82859076746725</v>
       </c>
       <c r="C292">
-        <v>0.01105901946009243</v>
+        <v>0.03851610946535383</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>18.63218530418172</v>
+        <v>18.76663595025085</v>
       </c>
       <c r="C293">
-        <v>0.03323375778342477</v>
+        <v>0.04990537428033195</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>19.09877595765793</v>
+        <v>19.82111001219574</v>
       </c>
       <c r="C294">
-        <v>0.0260896634098474</v>
+        <v>0.04114207261470963</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>19.1037173266708</v>
+        <v>19.1517225672988</v>
       </c>
       <c r="C295">
-        <v>0.02368115877203559</v>
+        <v>0.02692289688867818</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>18.55495942333423</v>
+        <v>18.43091584084465</v>
       </c>
       <c r="C296">
-        <v>0.02600024930314334</v>
+        <v>0.02445173631828912</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>19.79936345932923</v>
+        <v>19.43740682418891</v>
       </c>
       <c r="C297">
-        <v>0.01658986921407884</v>
+        <v>0.00658176992045597</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>19.94944606993629</v>
+        <v>18.78353609375327</v>
       </c>
       <c r="C298">
-        <v>0.03012516992027054</v>
+        <v>0.02125841986806934</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>18.69687086958407</v>
+        <v>19.83414143840374</v>
       </c>
       <c r="C299">
-        <v>0.01799403759255826</v>
+        <v>0.03143191641932392</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>18.31628309533112</v>
+        <v>19.33552111553263</v>
       </c>
       <c r="C300">
-        <v>0.03703934243333829</v>
+        <v>0.01804789175805401</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>18.83328693994575</v>
+        <v>19.76384732547049</v>
       </c>
       <c r="C301">
-        <v>0.01665692454164035</v>
+        <v>0.01506891809026477</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>19.36866239603688</v>
+        <v>19.19049466478827</v>
       </c>
       <c r="C302">
-        <v>0.01129057529280302</v>
+        <v>0.02418227552601738</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>18.15254636241159</v>
+        <v>19.11362572086394</v>
       </c>
       <c r="C303">
-        <v>0.04124042817776205</v>
+        <v>0.03878742124019798</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>19.38384691368341</v>
+        <v>18.91342564561134</v>
       </c>
       <c r="C304">
-        <v>0.03035488518626403</v>
+        <v>0.01643025110879866</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>19.94581993881195</v>
+        <v>18.36311783076274</v>
       </c>
       <c r="C305">
-        <v>0.01549258980287428</v>
+        <v>0.03936774389758569</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>18.23496492218332</v>
+        <v>18.22806319944129</v>
       </c>
       <c r="C306">
-        <v>0.04269119788022555</v>
+        <v>0.007151745509236782</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.89767890551432</v>
+        <v>19.4437607980551</v>
       </c>
       <c r="C307">
-        <v>0.02501209273126263</v>
+        <v>0.02177109373814018</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>19.01435421092189</v>
+        <v>19.45458914279575</v>
       </c>
       <c r="C308">
-        <v>0.01794645367775107</v>
+        <v>0.02727586859319478</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>19.41599719564714</v>
+        <v>18.30691105566145</v>
       </c>
       <c r="C309">
-        <v>0.0170932048413908</v>
+        <v>0.02012706416562218</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>19.16864536343847</v>
+        <v>18.0536655581952</v>
       </c>
       <c r="C310">
-        <v>0.01381799583310089</v>
+        <v>0.02612964080857789</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>19.86160136726794</v>
+        <v>19.92530873630928</v>
       </c>
       <c r="C311">
-        <v>0.01462519413376244</v>
+        <v>0.0492099262387813</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>18.2149368492504</v>
+        <v>18.12884787976939</v>
       </c>
       <c r="C312">
-        <v>0.0487904433635788</v>
+        <v>0.02121996872103219</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.48088698800067</v>
+        <v>19.52990977246776</v>
       </c>
       <c r="C313">
-        <v>0.02247564455322222</v>
+        <v>0.02718146959458812</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>18.26922547447624</v>
+        <v>19.01431079609788</v>
       </c>
       <c r="C314">
-        <v>0.04447571482826801</v>
+        <v>0.03549795276865372</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>19.62486387003234</v>
+        <v>19.57300237048515</v>
       </c>
       <c r="C315">
-        <v>0.02852860158644516</v>
+        <v>0.04868765101494622</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>19.09143121754684</v>
+        <v>19.75455577741624</v>
       </c>
       <c r="C316">
-        <v>0.02848711423103281</v>
+        <v>0.04210275386732584</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>19.42072487103528</v>
+        <v>18.32371569958086</v>
       </c>
       <c r="C317">
-        <v>0.0212411469185508</v>
+        <v>0.01190113450833587</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>19.45392464024105</v>
+        <v>18.52088059685386</v>
       </c>
       <c r="C318">
-        <v>0.0387732015588983</v>
+        <v>0.01506405791769142</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>18.03808110425702</v>
+        <v>18.95215676194191</v>
       </c>
       <c r="C319">
-        <v>0.02904913626740818</v>
+        <v>0.02049223011440493</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>18.3657717119081</v>
+        <v>19.87374184118283</v>
       </c>
       <c r="C320">
-        <v>0.008773300413108797</v>
+        <v>0.03062899078718955</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.86655824868381</v>
+        <v>18.48962087747272</v>
       </c>
       <c r="C321">
-        <v>0.01227917898366302</v>
+        <v>0.0467832785906037</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>18.34534227494424</v>
+        <v>19.6890444050938</v>
       </c>
       <c r="C322">
-        <v>0.03473004803645972</v>
+        <v>0.04021545949569411</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>18.61156313410094</v>
+        <v>18.06733060935769</v>
       </c>
       <c r="C323">
-        <v>0.03172922103536645</v>
+        <v>0.005595650799812742</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>19.24901498908792</v>
+        <v>18.66130911809918</v>
       </c>
       <c r="C324">
-        <v>0.01064308697376675</v>
+        <v>0.01572650117365769</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>18.8730870388974</v>
+        <v>19.81614035833992</v>
       </c>
       <c r="C325">
-        <v>0.01223503761743702</v>
+        <v>0.04520424081049888</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>18.56799754650255</v>
+        <v>19.64703404450432</v>
       </c>
       <c r="C326">
-        <v>0.04684155982104482</v>
+        <v>0.006917174676315736</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>18.32523025652435</v>
+        <v>19.29836395468784</v>
       </c>
       <c r="C327">
-        <v>0.01092511723653532</v>
+        <v>0.0146466047853772</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>18.42059099266626</v>
+        <v>19.35696867837835</v>
       </c>
       <c r="C328">
-        <v>0.00938564659551025</v>
+        <v>0.0241159322763749</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>19.82757176248132</v>
+        <v>19.68352156981459</v>
       </c>
       <c r="C329">
-        <v>0.01507027031301143</v>
+        <v>0.007206304194605434</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>19.97617152474693</v>
+        <v>18.21401999398412</v>
       </c>
       <c r="C330">
-        <v>0.03562070850880036</v>
+        <v>0.03866222070278581</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>19.43585714782037</v>
+        <v>18.96145535536582</v>
       </c>
       <c r="C331">
-        <v>0.04603556679285392</v>
+        <v>0.01078171745811991</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>19.49621485239542</v>
+        <v>19.02540371580491</v>
       </c>
       <c r="C332">
-        <v>0.006511863461348084</v>
+        <v>0.04155468411718402</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>19.70340120288083</v>
+        <v>19.2544015572939</v>
       </c>
       <c r="C333">
-        <v>0.03933226695553079</v>
+        <v>0.0425680945801498</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>19.84125659652275</v>
+        <v>19.15326024901386</v>
       </c>
       <c r="C334">
-        <v>0.04004908846600618</v>
+        <v>0.02901945228053163</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>18.78319407790627</v>
+        <v>18.9391174546945</v>
       </c>
       <c r="C335">
-        <v>0.02475182801135702</v>
+        <v>0.03149190983197372</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>19.34756996435996</v>
+        <v>18.45805779134063</v>
       </c>
       <c r="C336">
-        <v>0.0448931331246995</v>
+        <v>0.01497877218690459</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>18.49278891217179</v>
+        <v>19.60253205287882</v>
       </c>
       <c r="C337">
-        <v>0.01425102237894128</v>
+        <v>0.04353857435301437</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>18.76807267122068</v>
+        <v>18.49602518289798</v>
       </c>
       <c r="C338">
-        <v>0.03801455641664028</v>
+        <v>0.01116211352217046</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>19.86973764654187</v>
+        <v>19.93538528889412</v>
       </c>
       <c r="C339">
-        <v>0.01516667412238176</v>
+        <v>0.04391190298430659</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>18.74133911892272</v>
+        <v>18.38592063735902</v>
       </c>
       <c r="C340">
-        <v>0.02075272968149961</v>
+        <v>0.01446187869636093</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>18.30788414720641</v>
+        <v>18.70948159259274</v>
       </c>
       <c r="C341">
-        <v>0.0121444272655007</v>
+        <v>0.03368606915067636</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>18.15712665978253</v>
+        <v>19.91355517152892</v>
       </c>
       <c r="C342">
-        <v>0.006404413230267594</v>
+        <v>0.02611974562028304</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>18.89383623236057</v>
+        <v>18.22459086227925</v>
       </c>
       <c r="C343">
-        <v>0.006865141750822213</v>
+        <v>0.04430859760552815</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>19.01351712221949</v>
+        <v>18.23747306712245</v>
       </c>
       <c r="C344">
-        <v>0.009375469147714172</v>
+        <v>0.02792111239894142</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>19.98792449024738</v>
+        <v>18.84219657115688</v>
       </c>
       <c r="C345">
-        <v>0.03749802087244015</v>
+        <v>0.01145480623642949</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>19.13775650452319</v>
+        <v>18.19382245727664</v>
       </c>
       <c r="C346">
-        <v>0.03423182234420526</v>
+        <v>0.03695677633568857</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>18.7125719323384</v>
+        <v>18.95609149747715</v>
       </c>
       <c r="C347">
-        <v>0.01602461271283902</v>
+        <v>0.005100985156798629</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>19.72496776794843</v>
+        <v>19.08280421976939</v>
       </c>
       <c r="C348">
-        <v>0.01277382167303809</v>
+        <v>0.0348028879609822</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>19.64576862555562</v>
+        <v>19.48403888432436</v>
       </c>
       <c r="C349">
-        <v>0.04981302725067096</v>
+        <v>0.04278570577992313</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>18.23902061193492</v>
+        <v>18.26153153797447</v>
       </c>
       <c r="C350">
-        <v>0.006759144527804527</v>
+        <v>0.01218611992553537</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>18.30278257300501</v>
+        <v>19.65038207734617</v>
       </c>
       <c r="C351">
-        <v>0.02993453970665539</v>
+        <v>0.04226143473802991</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>18.6390868583964</v>
+        <v>18.57593186543124</v>
       </c>
       <c r="C352">
-        <v>0.01397573903429931</v>
+        <v>0.02260328631753011</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>19.361328444451</v>
+        <v>19.04230412704687</v>
       </c>
       <c r="C353">
-        <v>0.04613999941438309</v>
+        <v>0.02658134861866151</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>18.10860303015961</v>
+        <v>18.50062582041578</v>
       </c>
       <c r="C354">
-        <v>0.02318878758457309</v>
+        <v>0.04021355030182227</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>18.89086296388908</v>
+        <v>18.51056433354334</v>
       </c>
       <c r="C355">
-        <v>0.02189157756748781</v>
+        <v>0.04102814964229059</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>18.15503613932382</v>
+        <v>18.20146290577736</v>
       </c>
       <c r="C356">
-        <v>0.006048730003364394</v>
+        <v>0.03025624637539228</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>19.91483969818239</v>
+        <v>18.04895742275416</v>
       </c>
       <c r="C357">
-        <v>0.03094578388734628</v>
+        <v>0.02960132015813065</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>19.56713004313452</v>
+        <v>18.41237040664488</v>
       </c>
       <c r="C358">
-        <v>0.02373992157512</v>
+        <v>0.04805942209421853</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>18.89011133665709</v>
+        <v>19.6725897585926</v>
       </c>
       <c r="C359">
-        <v>0.01904780805415489</v>
+        <v>0.04612603440739798</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>18.34608555713353</v>
+        <v>19.04940393036897</v>
       </c>
       <c r="C360">
-        <v>0.02609102628842445</v>
+        <v>0.04549323960081948</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>19.99170536445991</v>
+        <v>18.30792697841514</v>
       </c>
       <c r="C361">
-        <v>0.02334846601761425</v>
+        <v>0.006222435702700186</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>18.36646655086574</v>
+        <v>18.2582623781421</v>
       </c>
       <c r="C362">
-        <v>0.0435931838724102</v>
+        <v>0.04538852652411298</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>19.91168207269079</v>
+        <v>19.66906988493141</v>
       </c>
       <c r="C363">
-        <v>0.005413258749365437</v>
+        <v>0.01697481612679936</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>18.09212977412095</v>
+        <v>18.93200001648427</v>
       </c>
       <c r="C364">
-        <v>0.006963177988262609</v>
+        <v>0.04305640525251929</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>18.97092639550035</v>
+        <v>18.32257587384965</v>
       </c>
       <c r="C365">
-        <v>0.04244725473911466</v>
+        <v>0.03990082121392446</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>19.4503426089074</v>
+        <v>19.62616743675927</v>
       </c>
       <c r="C366">
-        <v>0.04580542395986514</v>
+        <v>0.01761308056591207</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>19.19028006384401</v>
+        <v>19.65553888787541</v>
       </c>
       <c r="C367">
-        <v>0.04313032652825642</v>
+        <v>0.01869452670844452</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>18.5380414201712</v>
+        <v>19.8031418386058</v>
       </c>
       <c r="C368">
-        <v>0.01136523656228327</v>
+        <v>0.04630815417759445</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>18.24126663097705</v>
+        <v>18.51596448470008</v>
       </c>
       <c r="C369">
-        <v>0.04538008412419082</v>
+        <v>0.01176555326605753</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>19.09797143852616</v>
+        <v>19.67994462338025</v>
       </c>
       <c r="C370">
-        <v>0.02750314620810499</v>
+        <v>0.02041990649884081</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>19.3009032348834</v>
+        <v>19.98422082286072</v>
       </c>
       <c r="C371">
-        <v>0.02417406801247187</v>
+        <v>0.03320010260349023</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>18.45624703937888</v>
+        <v>18.8710368907379</v>
       </c>
       <c r="C372">
-        <v>0.04696278647370854</v>
+        <v>0.02694768717734367</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>19.92328034824389</v>
+        <v>19.63023786834579</v>
       </c>
       <c r="C373">
-        <v>0.02142021129342881</v>
+        <v>0.01489719726363823</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>18.67861657008231</v>
+        <v>19.04236877963424</v>
       </c>
       <c r="C374">
-        <v>0.04826867928018137</v>
+        <v>0.01621465372318258</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>18.60611131609612</v>
+        <v>19.72458123817871</v>
       </c>
       <c r="C375">
-        <v>0.01413775189527924</v>
+        <v>0.01607379338158039</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>19.26494551959755</v>
+        <v>19.14531613896462</v>
       </c>
       <c r="C376">
-        <v>0.02935019113853124</v>
+        <v>0.01593198146376817</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>19.94527733336216</v>
+        <v>19.73928332762825</v>
       </c>
       <c r="C377">
-        <v>0.03917015157342101</v>
+        <v>0.0177259387163312</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>18.9104705259107</v>
+        <v>18.14618708855519</v>
       </c>
       <c r="C378">
-        <v>0.04135666798428291</v>
+        <v>0.03598843989905501</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>18.80605162427376</v>
+        <v>19.73113462591721</v>
       </c>
       <c r="C379">
-        <v>0.04307580371588795</v>
+        <v>0.00841959576780027</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>18.6050566630397</v>
+        <v>18.01728901934623</v>
       </c>
       <c r="C380">
-        <v>0.02805441805510449</v>
+        <v>0.02293178621344981</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>19.82778976320487</v>
+        <v>18.66491740344099</v>
       </c>
       <c r="C381">
-        <v>0.03019246848004652</v>
+        <v>0.01907011030541749</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>18.52331673598434</v>
+        <v>18.98427711039193</v>
       </c>
       <c r="C382">
-        <v>0.03231530842083705</v>
+        <v>0.02502798581877079</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>18.34828781743138</v>
+        <v>19.01350211423747</v>
       </c>
       <c r="C383">
-        <v>0.04337436726789146</v>
+        <v>0.0495584004352532</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>18.26680141333432</v>
+        <v>18.02310253430197</v>
       </c>
       <c r="C384">
-        <v>0.04188697446361732</v>
+        <v>0.02137387601509883</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>19.72927414817585</v>
+        <v>19.24458327882095</v>
       </c>
       <c r="C385">
-        <v>0.01439027863296427</v>
+        <v>0.01935375482054419</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>18.86300753308689</v>
+        <v>19.96125762628523</v>
       </c>
       <c r="C386">
-        <v>0.02666321612269038</v>
+        <v>0.006341438808958237</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>18.51154506211027</v>
+        <v>18.57147605971262</v>
       </c>
       <c r="C387">
-        <v>0.007798421795274668</v>
+        <v>0.03789295450706616</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>18.73196485228401</v>
+        <v>18.02433967292497</v>
       </c>
       <c r="C388">
-        <v>0.01490989226317171</v>
+        <v>0.04516640084775299</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>19.3375721843861</v>
+        <v>18.78038172245437</v>
       </c>
       <c r="C389">
-        <v>0.03235790435754068</v>
+        <v>0.01227834288354093</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>19.58518807694913</v>
+        <v>18.28222366702459</v>
       </c>
       <c r="C390">
-        <v>0.02900572560034293</v>
+        <v>0.01987072027885681</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>18.25716739018725</v>
+        <v>18.38376164952818</v>
       </c>
       <c r="C391">
-        <v>0.0318698286696114</v>
+        <v>0.03536541955554454</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>18.58312528326267</v>
+        <v>18.16994410494479</v>
       </c>
       <c r="C392">
-        <v>0.02091752709489498</v>
+        <v>0.03705497120122152</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>19.35917884174417</v>
+        <v>18.69468028020153</v>
       </c>
       <c r="C393">
-        <v>0.04589191883182949</v>
+        <v>0.02341579014072528</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>18.45494025808315</v>
+        <v>19.66202286023803</v>
       </c>
       <c r="C394">
-        <v>0.03252036648827253</v>
+        <v>0.04374497770384749</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>19.31627926837738</v>
+        <v>18.88670367001396</v>
       </c>
       <c r="C395">
-        <v>0.04274395655198551</v>
+        <v>0.02504814156382481</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>19.80467378439845</v>
+        <v>19.66079728379447</v>
       </c>
       <c r="C396">
-        <v>0.02224115216227764</v>
+        <v>0.03451135321610217</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>18.31655642957482</v>
+        <v>19.59256093152508</v>
       </c>
       <c r="C397">
-        <v>0.01464749425075781</v>
+        <v>0.006464398516759486</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>18.75285116520823</v>
+        <v>19.35960665716813</v>
       </c>
       <c r="C398">
-        <v>0.01051142624111337</v>
+        <v>0.04677943899903664</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>19.23106043008507</v>
+        <v>19.50386602731741</v>
       </c>
       <c r="C399">
-        <v>0.0407893738332066</v>
+        <v>0.0304320372398103</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>19.17102939573843</v>
+        <v>19.38490840129006</v>
       </c>
       <c r="C400">
-        <v>0.04296138736869137</v>
+        <v>0.0210772844402569</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>19.86582113026421</v>
+        <v>19.82967129830149</v>
       </c>
       <c r="C401">
-        <v>0.02643157700584223</v>
+        <v>0.0056165537686501</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>19.80201885638533</v>
+        <v>19.71263206410528</v>
       </c>
       <c r="C402">
-        <v>0.008305629356813088</v>
+        <v>0.02658728856620094</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>19.08489844359038</v>
+        <v>18.31444538875728</v>
       </c>
       <c r="C403">
-        <v>0.005433043724585127</v>
+        <v>0.04174594196216103</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>19.91934600466244</v>
+        <v>18.27943825569389</v>
       </c>
       <c r="C404">
-        <v>0.01220884481375107</v>
+        <v>0.04266293629109753</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>18.41031778204615</v>
+        <v>18.93911403691747</v>
       </c>
       <c r="C405">
-        <v>0.04467541713853489</v>
+        <v>0.01770703504452742</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>18.69252677506596</v>
+        <v>19.22547281101629</v>
       </c>
       <c r="C406">
-        <v>0.005889622749697733</v>
+        <v>0.01321665354957699</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>19.33962538130317</v>
+        <v>19.56694617018718</v>
       </c>
       <c r="C407">
-        <v>0.04357636373050812</v>
+        <v>0.008932098773532354</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>18.34781353317543</v>
+        <v>19.13148830098647</v>
       </c>
       <c r="C408">
-        <v>0.01516217048955007</v>
+        <v>0.04245123089305528</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>18.163699539476</v>
+        <v>18.60325050632851</v>
       </c>
       <c r="C409">
-        <v>0.01738010862647407</v>
+        <v>0.02355084662838701</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>19.14060451286339</v>
+        <v>18.49190301615487</v>
       </c>
       <c r="C410">
-        <v>0.03876544120679771</v>
+        <v>0.007159928360370884</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>18.22031290939536</v>
+        <v>18.71466201877901</v>
       </c>
       <c r="C411">
-        <v>0.02973097932364421</v>
+        <v>0.04219698497742203</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>18.37599018206137</v>
+        <v>19.47266786442903</v>
       </c>
       <c r="C412">
-        <v>0.04663458236123798</v>
+        <v>0.01551350393557779</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>19.9682263185972</v>
+        <v>18.07155619638739</v>
       </c>
       <c r="C413">
-        <v>0.03938198672053236</v>
+        <v>0.0238484589208764</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>19.96978198216853</v>
+        <v>19.64418424398659</v>
       </c>
       <c r="C414">
-        <v>0.047394100284959</v>
+        <v>0.04654921124055133</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>18.77742804946643</v>
+        <v>19.07524114410269</v>
       </c>
       <c r="C415">
-        <v>0.02174025990728766</v>
+        <v>0.01207341332967619</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>18.8792690078905</v>
+        <v>18.77032469518887</v>
       </c>
       <c r="C416">
-        <v>0.02688186789170413</v>
+        <v>0.00963352014369883</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>18.70192458239151</v>
+        <v>19.13191097333115</v>
       </c>
       <c r="C417">
-        <v>0.03738906238413379</v>
+        <v>0.02421494076448558</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>18.99391421711864</v>
+        <v>19.90870929299014</v>
       </c>
       <c r="C418">
-        <v>0.008927479139629126</v>
+        <v>0.02920689115615346</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>18.01052087940917</v>
+        <v>18.26539087021212</v>
       </c>
       <c r="C419">
-        <v>0.02119340471814729</v>
+        <v>0.0394109342972867</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>19.5882076631995</v>
+        <v>18.15084770584572</v>
       </c>
       <c r="C420">
-        <v>0.0135095541828396</v>
+        <v>0.03488020982388175</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>19.16645281185506</v>
+        <v>18.36885063682589</v>
       </c>
       <c r="C421">
-        <v>0.01948493736251338</v>
+        <v>0.04720656780452257</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>18.2785436619941</v>
+        <v>19.77728990267656</v>
       </c>
       <c r="C422">
-        <v>0.02910957511957572</v>
+        <v>0.01432594273061271</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>19.4419962904322</v>
+        <v>19.69432375730569</v>
       </c>
       <c r="C423">
-        <v>0.0121741517492825</v>
+        <v>0.04548702449616681</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>19.17832411204768</v>
+        <v>18.11646234618869</v>
       </c>
       <c r="C424">
-        <v>0.02391124004441619</v>
+        <v>0.0378480533653766</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>19.75261439195473</v>
+        <v>18.38741145455737</v>
       </c>
       <c r="C425">
-        <v>0.04861478426507999</v>
+        <v>0.02655124886874616</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>18.69330673706801</v>
+        <v>19.43016202236989</v>
       </c>
       <c r="C426">
-        <v>0.01364738362708314</v>
+        <v>0.01631189653447481</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>18.28216072864354</v>
+        <v>19.0201927361577</v>
       </c>
       <c r="C427">
-        <v>0.005872291108867544</v>
+        <v>0.01335171107638081</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>19.59434311112055</v>
+        <v>19.55898178164636</v>
       </c>
       <c r="C428">
-        <v>0.03222714152763438</v>
+        <v>0.01734246876295308</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>19.75975140093947</v>
+        <v>19.93058703615012</v>
       </c>
       <c r="C429">
-        <v>0.02704271492897852</v>
+        <v>0.04792745877438791</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>18.19166452355753</v>
+        <v>19.66271640713409</v>
       </c>
       <c r="C430">
-        <v>0.02543114247048138</v>
+        <v>0.01742626825952532</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>19.30013826642036</v>
+        <v>18.69485779395553</v>
       </c>
       <c r="C431">
-        <v>0.042702054456079</v>
+        <v>0.01205455402452708</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>18.67407291932128</v>
+        <v>18.14150611028705</v>
       </c>
       <c r="C432">
-        <v>0.006823587137392133</v>
+        <v>0.02395311047473269</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>19.73839963652827</v>
+        <v>19.7914988714262</v>
       </c>
       <c r="C433">
-        <v>0.0243526631132898</v>
+        <v>0.03586463784755958</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>18.15143420112017</v>
+        <v>18.2770581858427</v>
       </c>
       <c r="C434">
-        <v>0.01271192479137073</v>
+        <v>0.01120771711835344</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>18.8652451488346</v>
+        <v>18.78254687911106</v>
       </c>
       <c r="C435">
-        <v>0.04978108664908808</v>
+        <v>0.01120048597854606</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>18.65127809256777</v>
+        <v>18.06027225204089</v>
       </c>
       <c r="C436">
-        <v>0.01403321378725009</v>
+        <v>0.0249795341976824</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>19.81467632476837</v>
+        <v>18.1723145438537</v>
       </c>
       <c r="C437">
-        <v>0.04050014354980164</v>
+        <v>0.018243525131286</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>19.35221571725581</v>
+        <v>19.59085763578797</v>
       </c>
       <c r="C438">
-        <v>0.00816358711500564</v>
+        <v>0.02829248498366977</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>18.08078602859294</v>
+        <v>18.62759944464489</v>
       </c>
       <c r="C439">
-        <v>0.03511485314173353</v>
+        <v>0.042140988603473</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>19.2352927645573</v>
+        <v>18.64674846017701</v>
       </c>
       <c r="C440">
-        <v>0.04673329959176171</v>
+        <v>0.009913393486274232</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>19.29018373435484</v>
+        <v>18.72873232382172</v>
       </c>
       <c r="C441">
-        <v>0.0143108338619641</v>
+        <v>0.01346780570746636</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>18.50117589087778</v>
+        <v>18.1852099694317</v>
       </c>
       <c r="C442">
-        <v>0.02078488799250508</v>
+        <v>0.02284304526422531</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>18.27729463628356</v>
+        <v>18.73785823199131</v>
       </c>
       <c r="C443">
-        <v>0.01392873516966773</v>
+        <v>0.04315575828070217</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>19.4308586151069</v>
+        <v>19.3019308669546</v>
       </c>
       <c r="C444">
-        <v>0.04194781008190581</v>
+        <v>0.02298950195286857</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>18.04831229323737</v>
+        <v>18.29282231040742</v>
       </c>
       <c r="C445">
-        <v>0.03177197431301681</v>
+        <v>0.04992739711219778</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>18.17419287499489</v>
+        <v>18.25262464954391</v>
       </c>
       <c r="C446">
-        <v>0.04006628150623707</v>
+        <v>0.0282240442018446</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>19.49752062443417</v>
+        <v>19.06574814314348</v>
       </c>
       <c r="C447">
-        <v>0.03781976364886681</v>
+        <v>0.03343467584581744</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>18.25002809771663</v>
+        <v>18.23090330181186</v>
       </c>
       <c r="C448">
-        <v>0.02431985223744033</v>
+        <v>0.03512215708913839</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>19.01822263693277</v>
+        <v>19.96017222156574</v>
       </c>
       <c r="C449">
-        <v>0.03722290618846801</v>
+        <v>0.009629140654316189</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>18.99896884464123</v>
+        <v>19.97307435349091</v>
       </c>
       <c r="C450">
-        <v>0.01526932217135895</v>
+        <v>0.04340656450447394</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>19.29836563478748</v>
+        <v>19.67112106468792</v>
       </c>
       <c r="C451">
-        <v>0.01409924409364877</v>
+        <v>0.01797919806484504</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>19.06214213381109</v>
+        <v>18.40438628016056</v>
       </c>
       <c r="C452">
-        <v>0.0440775389808796</v>
+        <v>0.006787496324393366</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>19.5845605844191</v>
+        <v>19.92152685648825</v>
       </c>
       <c r="C453">
-        <v>0.01385424971111688</v>
+        <v>0.0104045713277451</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>18.34021334533659</v>
+        <v>18.98983968388852</v>
       </c>
       <c r="C454">
-        <v>0.02786035134491923</v>
+        <v>0.02506469841049459</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>19.05610952734269</v>
+        <v>18.9544495384234</v>
       </c>
       <c r="C455">
-        <v>0.01300035238627788</v>
+        <v>0.01959688687783757</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>18.00393276071418</v>
+        <v>19.47566482999236</v>
       </c>
       <c r="C456">
-        <v>0.04509095089679271</v>
+        <v>0.03312055881230926</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>18.96092316830716</v>
+        <v>18.36144499828023</v>
       </c>
       <c r="C457">
-        <v>0.04901290260380171</v>
+        <v>0.01643896537085442</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>18.8965511492078</v>
+        <v>19.60996661757232</v>
       </c>
       <c r="C458">
-        <v>0.02373594326338743</v>
+        <v>0.01352072296546711</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>19.11773948743569</v>
+        <v>18.41381591723221</v>
       </c>
       <c r="C459">
-        <v>0.01233952691702244</v>
+        <v>0.01224657878167546</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>18.27488791294197</v>
+        <v>18.48869598921471</v>
       </c>
       <c r="C460">
-        <v>0.010769674960596</v>
+        <v>0.01663011740996547</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>18.35199408542904</v>
+        <v>19.11077685377901</v>
       </c>
       <c r="C461">
-        <v>0.02909078571812112</v>
+        <v>0.0115459430910375</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>19.72233330382398</v>
+        <v>19.39923315238544</v>
       </c>
       <c r="C462">
-        <v>0.01024296297915125</v>
+        <v>0.02547709661620979</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>19.63630536488376</v>
+        <v>18.75498436165888</v>
       </c>
       <c r="C463">
-        <v>0.04153097058803554</v>
+        <v>0.01570351679171622</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>19.33069380113745</v>
+        <v>19.16883099322592</v>
       </c>
       <c r="C464">
-        <v>0.02310959445597738</v>
+        <v>0.007022405791839359</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>18.66917899922967</v>
+        <v>18.93112311433615</v>
       </c>
       <c r="C465">
-        <v>0.04029567573166029</v>
+        <v>0.02515672454456985</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>19.67666479427206</v>
+        <v>18.54679248881422</v>
       </c>
       <c r="C466">
-        <v>0.01622387860421542</v>
+        <v>0.04123366284377871</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>19.95724913465865</v>
+        <v>18.88952185243485</v>
       </c>
       <c r="C467">
-        <v>0.0187189043091279</v>
+        <v>0.01926264218680353</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>18.10609724036302</v>
+        <v>19.28589146169983</v>
       </c>
       <c r="C468">
-        <v>0.04056426799289845</v>
+        <v>0.03018344882331565</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>19.22905142373397</v>
+        <v>19.2609892461616</v>
       </c>
       <c r="C469">
-        <v>0.008645601076663506</v>
+        <v>0.01506687272753748</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>18.62930760819248</v>
+        <v>18.79224817176481</v>
       </c>
       <c r="C470">
-        <v>0.04047763083067037</v>
+        <v>0.02056836531076788</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>19.10905147748369</v>
+        <v>18.24617696757744</v>
       </c>
       <c r="C471">
-        <v>0.02109287055017527</v>
+        <v>0.01016577405071278</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>18.91476176390124</v>
+        <v>18.51407257734839</v>
       </c>
       <c r="C472">
-        <v>0.01633831631518078</v>
+        <v>0.01065084895909134</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>19.82683593031323</v>
+        <v>18.72199240427537</v>
       </c>
       <c r="C473">
-        <v>0.01625467547253715</v>
+        <v>0.04533867100407468</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>19.39187320743204</v>
+        <v>19.17607972111804</v>
       </c>
       <c r="C474">
-        <v>0.01994497696183136</v>
+        <v>0.02650764270563223</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>18.24780357112147</v>
+        <v>18.61621263840359</v>
       </c>
       <c r="C475">
-        <v>0.04415047390365192</v>
+        <v>0.008498898851894974</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>19.10581015493234</v>
+        <v>19.90668814321396</v>
       </c>
       <c r="C476">
-        <v>0.04263586841773851</v>
+        <v>0.03459094540414741</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>19.49429634864762</v>
+        <v>18.83379910272329</v>
       </c>
       <c r="C477">
-        <v>0.03097710644068595</v>
+        <v>0.03252057934028779</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>19.00235896898744</v>
+        <v>18.48978928503431</v>
       </c>
       <c r="C478">
-        <v>0.04305973507023436</v>
+        <v>0.04161237874969041</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>18.68558141172189</v>
+        <v>19.15912329471726</v>
       </c>
       <c r="C479">
-        <v>0.04199187681340622</v>
+        <v>0.008991718327150035</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>19.62008726297723</v>
+        <v>19.36392292976441</v>
       </c>
       <c r="C480">
-        <v>0.02573423398154025</v>
+        <v>0.02824745295490647</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>18.40756467256436</v>
+        <v>19.55778106797407</v>
       </c>
       <c r="C481">
-        <v>0.01624197287352025</v>
+        <v>0.04342400015281117</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>19.76155653844303</v>
+        <v>19.60021979926232</v>
       </c>
       <c r="C482">
-        <v>0.008948446140032786</v>
+        <v>0.04606591997542653</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>19.21429036192664</v>
+        <v>19.23504237335144</v>
       </c>
       <c r="C483">
-        <v>0.03277785952076465</v>
+        <v>0.007648382698154283</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>18.08417079632764</v>
+        <v>18.77888793336781</v>
       </c>
       <c r="C484">
-        <v>0.03175085730677568</v>
+        <v>0.006373733344241689</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>18.80025360411297</v>
+        <v>18.56175309094872</v>
       </c>
       <c r="C485">
-        <v>0.03946339534001499</v>
+        <v>0.04196872777980934</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>18.2113521584865</v>
+        <v>19.36465910050934</v>
       </c>
       <c r="C486">
-        <v>0.04735923117038619</v>
+        <v>0.01546058367615362</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>18.2787518780516</v>
+        <v>18.69820035882353</v>
       </c>
       <c r="C487">
-        <v>0.02261848191016428</v>
+        <v>0.01253406838405395</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>19.41116142215244</v>
+        <v>18.28174678393214</v>
       </c>
       <c r="C488">
-        <v>0.006223845213150383</v>
+        <v>0.04981669974117413</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>18.64021713422677</v>
+        <v>19.07352456761283</v>
       </c>
       <c r="C489">
-        <v>0.0186384952738759</v>
+        <v>0.04076564908299807</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>18.74255193241354</v>
+        <v>19.55503252768861</v>
       </c>
       <c r="C490">
-        <v>0.007155996915332514</v>
+        <v>0.0164007379162926</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>19.29148384410917</v>
+        <v>18.80363468250579</v>
       </c>
       <c r="C491">
-        <v>0.03510389468191207</v>
+        <v>0.006615064605010155</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>18.66586352465621</v>
+        <v>19.11493345910086</v>
       </c>
       <c r="C492">
-        <v>0.0365967859383387</v>
+        <v>0.02780367739896702</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>18.76978186371558</v>
+        <v>18.87232106777613</v>
       </c>
       <c r="C493">
-        <v>0.0355274044194353</v>
+        <v>0.02593713777684767</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>19.75806687464682</v>
+        <v>19.30436165168129</v>
       </c>
       <c r="C494">
-        <v>0.04571391308962724</v>
+        <v>0.04508035309944607</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>19.23458010722481</v>
+        <v>19.65201970248028</v>
       </c>
       <c r="C495">
-        <v>0.0121461193523446</v>
+        <v>0.03603598933407859</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>19.89265256077993</v>
+        <v>18.63596054661964</v>
       </c>
       <c r="C496">
-        <v>0.03870790341210929</v>
+        <v>0.01095238126963628</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>19.04238647539757</v>
+        <v>19.14262323305557</v>
       </c>
       <c r="C497">
-        <v>0.02705010917670606</v>
+        <v>0.02208704977894185</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>18.7911109684086</v>
+        <v>18.41376541565369</v>
       </c>
       <c r="C498">
-        <v>0.03324117560560313</v>
+        <v>0.03575842390012939</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>18.93641871362493</v>
+        <v>19.68604045396591</v>
       </c>
       <c r="C499">
-        <v>0.04901288771363754</v>
+        <v>0.04951036815196234</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>19.91460050827624</v>
+        <v>19.68511233137497</v>
       </c>
       <c r="C500">
-        <v>0.0261855857000883</v>
+        <v>0.04480857552584278</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>18.24951957664724</v>
+        <v>18.10881372651602</v>
       </c>
       <c r="C501">
-        <v>0.02885672574515687</v>
+        <v>0.03259724261430504</v>
       </c>
     </row>
   </sheetData>

--- a/omari.xlsx
+++ b/omari.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.17414286193574</v>
+        <v>18.99488977645266</v>
       </c>
       <c r="C2">
-        <v>0.04082751926681658</v>
+        <v>0.0220720303894575</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.32462622680661</v>
+        <v>18.3614893843657</v>
       </c>
       <c r="C3">
-        <v>0.0182554760258942</v>
+        <v>0.03369348184032508</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.4523903753784</v>
+        <v>18.57080632167638</v>
       </c>
       <c r="C4">
-        <v>0.01428008741948812</v>
+        <v>0.03025011917314119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.71257815941242</v>
+        <v>18.55817911390694</v>
       </c>
       <c r="C5">
-        <v>0.006750828438277102</v>
+        <v>0.0315955467085905</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.51023899128353</v>
+        <v>19.64146970937789</v>
       </c>
       <c r="C6">
-        <v>0.005525493055644999</v>
+        <v>0.01572707221618844</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.69073195158821</v>
+        <v>18.43241855381851</v>
       </c>
       <c r="C7">
-        <v>0.007135034239565581</v>
+        <v>0.009812426235291822</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.64363573989806</v>
+        <v>19.54212755303881</v>
       </c>
       <c r="C8">
-        <v>0.04492496057441846</v>
+        <v>0.01758344794203597</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.79451550805065</v>
+        <v>19.1330203300272</v>
       </c>
       <c r="C9">
-        <v>0.04542148700688575</v>
+        <v>0.02715590457097249</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.17351001330372</v>
+        <v>18.06576775726264</v>
       </c>
       <c r="C10">
-        <v>0.02283105422082632</v>
+        <v>0.009665170632874077</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.81238937442287</v>
+        <v>19.56320051291269</v>
       </c>
       <c r="C11">
-        <v>0.0266133827222358</v>
+        <v>0.04604093757427156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.6395000300849</v>
+        <v>19.64030514526232</v>
       </c>
       <c r="C12">
-        <v>0.02256744863362941</v>
+        <v>0.03965933483610198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.15399683046121</v>
+        <v>18.07278061248423</v>
       </c>
       <c r="C13">
-        <v>0.03519494615057552</v>
+        <v>0.02941910131974478</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.90996279517862</v>
+        <v>19.8957542176376</v>
       </c>
       <c r="C14">
-        <v>0.02092984840003028</v>
+        <v>0.03428199959932095</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.91853106694748</v>
+        <v>18.92576604435019</v>
       </c>
       <c r="C15">
-        <v>0.008570689113941113</v>
+        <v>0.04558903455731542</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.7634980335802</v>
+        <v>19.16326317405458</v>
       </c>
       <c r="C16">
-        <v>0.04636160602398582</v>
+        <v>0.03732634643752571</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.52061123412518</v>
+        <v>19.86121840907866</v>
       </c>
       <c r="C17">
-        <v>0.04456972117487532</v>
+        <v>0.03034711590427578</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.07552107810798</v>
+        <v>19.76806207117786</v>
       </c>
       <c r="C18">
-        <v>0.0225341323332834</v>
+        <v>0.03016209575991155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.19082354650743</v>
+        <v>19.31588972377281</v>
       </c>
       <c r="C19">
-        <v>0.01382496404438888</v>
+        <v>0.04964084117879363</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.77528452331201</v>
+        <v>19.57973985532387</v>
       </c>
       <c r="C20">
-        <v>0.03956715709908554</v>
+        <v>0.03305401028748309</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.70330197069519</v>
+        <v>18.35748596168793</v>
       </c>
       <c r="C21">
-        <v>0.014654329239391</v>
+        <v>0.04954549479534287</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.07508556382903</v>
+        <v>19.17866494078492</v>
       </c>
       <c r="C22">
-        <v>0.03785012027931988</v>
+        <v>0.01737728172298176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.28328886228498</v>
+        <v>18.71016690932455</v>
       </c>
       <c r="C23">
-        <v>0.0281357643226378</v>
+        <v>0.04160974228268187</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.74142011276308</v>
+        <v>18.08482439358914</v>
       </c>
       <c r="C24">
-        <v>0.0243813886502191</v>
+        <v>0.04039866316804632</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12158439686046</v>
+        <v>18.18938052110379</v>
       </c>
       <c r="C25">
-        <v>0.0245527129929037</v>
+        <v>0.01940304099744454</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.51690982607758</v>
+        <v>18.01728599509886</v>
       </c>
       <c r="C26">
-        <v>0.02234303111493188</v>
+        <v>0.01292195846476335</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.17944053235186</v>
+        <v>19.79970320679095</v>
       </c>
       <c r="C27">
-        <v>0.02364281256785566</v>
+        <v>0.03579304018598748</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19.4025228852089</v>
+        <v>19.48032696257713</v>
       </c>
       <c r="C28">
-        <v>0.02788746312213636</v>
+        <v>0.02049774843348008</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.78421427204196</v>
+        <v>18.73710473491657</v>
       </c>
       <c r="C29">
-        <v>0.03459549115201292</v>
+        <v>0.04203758920026783</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>18.56136630164001</v>
+        <v>18.71833542996746</v>
       </c>
       <c r="C30">
-        <v>0.0426629448612818</v>
+        <v>0.02732984328856933</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.44676561697348</v>
+        <v>19.42954696017838</v>
       </c>
       <c r="C31">
-        <v>0.01302683564695949</v>
+        <v>0.01338807145662164</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>18.86820142276741</v>
+        <v>19.11844711947289</v>
       </c>
       <c r="C32">
-        <v>0.0146197640502693</v>
+        <v>0.04609890421650232</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.9038525726833</v>
+        <v>19.77696844785613</v>
       </c>
       <c r="C33">
-        <v>0.01080773830665165</v>
+        <v>0.04713308543765035</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19.02189568304803</v>
+        <v>19.04627931189086</v>
       </c>
       <c r="C34">
-        <v>0.005604675339645846</v>
+        <v>0.02083753521246537</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>18.95371746463571</v>
+        <v>19.20641031178237</v>
       </c>
       <c r="C35">
-        <v>0.03828291813266538</v>
+        <v>0.00518449275374327</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>19.56561262486468</v>
+        <v>18.19233928169112</v>
       </c>
       <c r="C36">
-        <v>0.02524159990136586</v>
+        <v>0.005500597884633781</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>19.91073543835434</v>
+        <v>19.96473598643819</v>
       </c>
       <c r="C37">
-        <v>0.04872907878551733</v>
+        <v>0.04958883530445672</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>19.47019464354363</v>
+        <v>19.85158377245547</v>
       </c>
       <c r="C38">
-        <v>0.02385610269409408</v>
+        <v>0.02735684012229371</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>19.89754948580867</v>
+        <v>19.74500607566196</v>
       </c>
       <c r="C39">
-        <v>0.0161463833942047</v>
+        <v>0.009828965017347792</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>19.69235258299722</v>
+        <v>18.66780845941154</v>
       </c>
       <c r="C40">
-        <v>0.02098630749306303</v>
+        <v>0.03574514842166741</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>19.56130014965633</v>
+        <v>18.98154656740461</v>
       </c>
       <c r="C41">
-        <v>0.01804767866937031</v>
+        <v>0.02604943893068568</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>18.47344415642419</v>
+        <v>18.2747736193345</v>
       </c>
       <c r="C42">
-        <v>0.005892887480002926</v>
+        <v>0.03288801706660963</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>18.16096236826424</v>
+        <v>19.82878952157504</v>
       </c>
       <c r="C43">
-        <v>0.03027258694724817</v>
+        <v>0.01232634143899502</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>18.47415222882611</v>
+        <v>18.61482693243051</v>
       </c>
       <c r="C44">
-        <v>0.02594443310216887</v>
+        <v>0.01181975022083643</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>18.49561485307855</v>
+        <v>18.10690193500653</v>
       </c>
       <c r="C45">
-        <v>0.01233760640940086</v>
+        <v>0.036780691038526</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>19.31017827485217</v>
+        <v>19.74369132275622</v>
       </c>
       <c r="C46">
-        <v>0.03985291118903077</v>
+        <v>0.02696765535874524</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>18.57345302494315</v>
+        <v>19.56160905354225</v>
       </c>
       <c r="C47">
-        <v>0.02479383745226142</v>
+        <v>0.02689217919641201</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>19.44091448544193</v>
+        <v>18.28583022808076</v>
       </c>
       <c r="C48">
-        <v>0.0231589595511494</v>
+        <v>0.008778722823944575</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>19.94823504101517</v>
+        <v>19.20852245059865</v>
       </c>
       <c r="C49">
-        <v>0.04211250945318393</v>
+        <v>0.01060359893292859</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>18.91038359937773</v>
+        <v>18.49032099768576</v>
       </c>
       <c r="C50">
-        <v>0.02522891135905583</v>
+        <v>0.04068354734278079</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>19.58037015308012</v>
+        <v>18.31970524337715</v>
       </c>
       <c r="C51">
-        <v>0.0345237908368634</v>
+        <v>0.03876350817595532</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>19.35701397787511</v>
+        <v>19.23216717153024</v>
       </c>
       <c r="C52">
-        <v>0.01121646354781962</v>
+        <v>0.0148780559022268</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>18.9238381470411</v>
+        <v>19.15205131270602</v>
       </c>
       <c r="C53">
-        <v>0.0315947754543665</v>
+        <v>0.01298235657617303</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>18.72451340198707</v>
+        <v>19.95313291775782</v>
       </c>
       <c r="C54">
-        <v>0.03579573589082066</v>
+        <v>0.02553581244757585</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19.1887883432551</v>
+        <v>18.32669629802715</v>
       </c>
       <c r="C55">
-        <v>0.01675364116937518</v>
+        <v>0.02672304170798672</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>19.27954674505471</v>
+        <v>19.45481508430556</v>
       </c>
       <c r="C56">
-        <v>0.04089536301571059</v>
+        <v>0.03467434995552896</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>18.56022112999127</v>
+        <v>18.14799677039295</v>
       </c>
       <c r="C57">
-        <v>0.02175740958180367</v>
+        <v>0.03670447486653276</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>19.64778928321422</v>
+        <v>19.33656762390947</v>
       </c>
       <c r="C58">
-        <v>0.03255343333428403</v>
+        <v>0.04181443850931593</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>18.79523158588152</v>
+        <v>18.0703255749032</v>
       </c>
       <c r="C59">
-        <v>0.0192253890205419</v>
+        <v>0.01893241046493574</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>19.42373047299462</v>
+        <v>19.01962686538801</v>
       </c>
       <c r="C60">
-        <v>0.02960483211866444</v>
+        <v>0.03881704972559401</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>18.86851099560161</v>
+        <v>18.09800639296697</v>
       </c>
       <c r="C61">
-        <v>0.04724544215440891</v>
+        <v>0.02369365948177392</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>19.32838147040799</v>
+        <v>19.45118380183282</v>
       </c>
       <c r="C62">
-        <v>0.0370235011311823</v>
+        <v>0.02775590887859502</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>19.68759474581081</v>
+        <v>18.02185234694567</v>
       </c>
       <c r="C63">
-        <v>0.01591821752048733</v>
+        <v>0.04935780947779372</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>19.96477295979849</v>
+        <v>19.50740527556186</v>
       </c>
       <c r="C64">
-        <v>0.04879243632477673</v>
+        <v>0.006345820841891322</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18.16932883255354</v>
+        <v>19.51759344669432</v>
       </c>
       <c r="C65">
-        <v>0.005231285215887767</v>
+        <v>0.04102562811709989</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>18.59707067813119</v>
+        <v>19.8389174687878</v>
       </c>
       <c r="C66">
-        <v>0.04660018126479416</v>
+        <v>0.008141180437404087</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>18.52972427081549</v>
+        <v>18.44782336588739</v>
       </c>
       <c r="C67">
-        <v>0.02982878948659424</v>
+        <v>0.02294439864311208</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.2998813901715</v>
+        <v>18.30569064420616</v>
       </c>
       <c r="C68">
-        <v>0.02010097709625129</v>
+        <v>0.01892801424301515</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>19.44459885779943</v>
+        <v>18.11484951744018</v>
       </c>
       <c r="C69">
-        <v>0.02900386646304656</v>
+        <v>0.01678462562638954</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>18.68413923863584</v>
+        <v>18.73173891350794</v>
       </c>
       <c r="C70">
-        <v>0.04407178632052633</v>
+        <v>0.008534427381019895</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>18.9395493161241</v>
+        <v>19.5376584075907</v>
       </c>
       <c r="C71">
-        <v>0.04697295981799433</v>
+        <v>0.04970949438078121</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>18.22416490541756</v>
+        <v>18.4049336563938</v>
       </c>
       <c r="C72">
-        <v>0.03239857780392377</v>
+        <v>0.02786639329434153</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>18.63547270261711</v>
+        <v>19.52753524916862</v>
       </c>
       <c r="C73">
-        <v>0.01864833539308804</v>
+        <v>0.02894283089206603</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>18.26333891613748</v>
+        <v>19.0714108992038</v>
       </c>
       <c r="C74">
-        <v>0.04592036739861156</v>
+        <v>0.02779685519201627</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>19.8381542202269</v>
+        <v>18.98842250275007</v>
       </c>
       <c r="C75">
-        <v>0.04260625154223101</v>
+        <v>0.01651519309924515</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>18.8987185474285</v>
+        <v>19.51005102841053</v>
       </c>
       <c r="C76">
-        <v>0.006072560555131866</v>
+        <v>0.03132950659608265</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>18.95021321095944</v>
+        <v>19.33316881892834</v>
       </c>
       <c r="C77">
-        <v>0.04626138765685139</v>
+        <v>0.02168042462513796</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>18.53217520091648</v>
+        <v>19.36167563968669</v>
       </c>
       <c r="C78">
-        <v>0.02815794026579899</v>
+        <v>0.01187778474923903</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>18.580904832237</v>
+        <v>19.57512071224074</v>
       </c>
       <c r="C79">
-        <v>0.01984301496979027</v>
+        <v>0.0170301101954135</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>19.14198885399091</v>
+        <v>19.6271634264575</v>
       </c>
       <c r="C80">
-        <v>0.01850190063406992</v>
+        <v>0.0347341857031493</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>18.20690562038637</v>
+        <v>18.96128855963924</v>
       </c>
       <c r="C81">
-        <v>0.02936841325681369</v>
+        <v>0.02673874702462541</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>18.86677593328559</v>
+        <v>18.40865134277658</v>
       </c>
       <c r="C82">
-        <v>0.01267440183615109</v>
+        <v>0.01721421124282078</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>19.25041271726322</v>
+        <v>19.15865206651376</v>
       </c>
       <c r="C83">
-        <v>0.0138045684006279</v>
+        <v>0.01949771277246287</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>18.71907448947259</v>
+        <v>19.21826299908614</v>
       </c>
       <c r="C84">
-        <v>0.02653414948480837</v>
+        <v>0.04594925579666569</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>18.05703035543466</v>
+        <v>18.0445906857915</v>
       </c>
       <c r="C85">
-        <v>0.02581296089758924</v>
+        <v>0.01067774469651087</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>19.210343940023</v>
+        <v>18.67030303651542</v>
       </c>
       <c r="C86">
-        <v>0.02363720971467797</v>
+        <v>0.02566575671563127</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>19.16853025947482</v>
+        <v>18.13604058026944</v>
       </c>
       <c r="C87">
-        <v>0.03077663861788286</v>
+        <v>0.01085807045050103</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>19.30869722380452</v>
+        <v>19.48816347574457</v>
       </c>
       <c r="C88">
-        <v>0.04857789963716886</v>
+        <v>0.02535770244237163</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>18.8072046641985</v>
+        <v>19.05657898636638</v>
       </c>
       <c r="C89">
-        <v>0.03905378373025729</v>
+        <v>0.007035273390852394</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>19.22983024095057</v>
+        <v>18.98413152613064</v>
       </c>
       <c r="C90">
-        <v>0.0388410407325649</v>
+        <v>0.02895221915511706</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>18.57727221797746</v>
+        <v>19.7283864337382</v>
       </c>
       <c r="C91">
-        <v>0.02449793725201177</v>
+        <v>0.02492106287781505</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>18.19461919656051</v>
+        <v>18.02119107955056</v>
       </c>
       <c r="C92">
-        <v>0.04393592695825994</v>
+        <v>0.04284378469873828</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>18.06499548728483</v>
+        <v>18.55953925802949</v>
       </c>
       <c r="C93">
-        <v>0.04255687703196025</v>
+        <v>0.03573355020625833</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>18.62506890628825</v>
+        <v>19.22470740960881</v>
       </c>
       <c r="C94">
-        <v>0.009300680901424682</v>
+        <v>0.04598792133489971</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>19.46595102009562</v>
+        <v>19.58035984336642</v>
       </c>
       <c r="C95">
-        <v>0.03727619262324957</v>
+        <v>0.02969457768452317</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>19.33773947292464</v>
+        <v>19.38853288270512</v>
       </c>
       <c r="C96">
-        <v>0.0233146676687309</v>
+        <v>0.01491981842429789</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>18.30509600875214</v>
+        <v>18.35436157006702</v>
       </c>
       <c r="C97">
-        <v>0.04823060829793131</v>
+        <v>0.01779748555751964</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>19.21857323700263</v>
+        <v>19.06930064224449</v>
       </c>
       <c r="C98">
-        <v>0.03597899116472987</v>
+        <v>0.005246402369643692</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.46956077493071</v>
+        <v>19.9822101098254</v>
       </c>
       <c r="C99">
-        <v>0.01430235442425275</v>
+        <v>0.01378148702273224</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>18.35701050461521</v>
+        <v>18.34767771214467</v>
       </c>
       <c r="C100">
-        <v>0.007362897961933492</v>
+        <v>0.005040704150243421</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.45974916065632</v>
+        <v>19.87116110694589</v>
       </c>
       <c r="C101">
-        <v>0.02908470020445182</v>
+        <v>0.03740065400575149</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18.67804659729984</v>
+        <v>18.87387253103327</v>
       </c>
       <c r="C102">
-        <v>0.0116097894142714</v>
+        <v>0.01105520291113854</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18.96125808432004</v>
+        <v>19.45574038251124</v>
       </c>
       <c r="C103">
-        <v>0.02903615721009238</v>
+        <v>0.04682081755115321</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>19.12821444400374</v>
+        <v>19.65673985183198</v>
       </c>
       <c r="C104">
-        <v>0.04516752896907357</v>
+        <v>0.0228890551253582</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>19.42202888944254</v>
+        <v>18.44167240671663</v>
       </c>
       <c r="C105">
-        <v>0.02107577646526133</v>
+        <v>0.01189716784312896</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>18.42478727314562</v>
+        <v>19.54251861007788</v>
       </c>
       <c r="C106">
-        <v>0.01055308873704099</v>
+        <v>0.04090164962655336</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>18.70545838534027</v>
+        <v>19.75935415919668</v>
       </c>
       <c r="C107">
-        <v>0.03401750910315256</v>
+        <v>0.04144939025064912</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>19.02733721499463</v>
+        <v>19.08497592543984</v>
       </c>
       <c r="C108">
-        <v>0.006156666519684429</v>
+        <v>0.006080273156439409</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18.47361914916448</v>
+        <v>19.38890472954502</v>
       </c>
       <c r="C109">
-        <v>0.04813107771664287</v>
+        <v>0.04934699823770056</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.27037524634011</v>
+        <v>18.04819509752803</v>
       </c>
       <c r="C110">
-        <v>0.04465541721354721</v>
+        <v>0.04807883843615646</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>18.41818527754085</v>
+        <v>19.72617497093109</v>
       </c>
       <c r="C111">
-        <v>0.01889466635130872</v>
+        <v>0.03672482278337954</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>19.68061623450056</v>
+        <v>18.42510912168151</v>
       </c>
       <c r="C112">
-        <v>0.01619252134734933</v>
+        <v>0.01289213383884694</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>19.28930579589717</v>
+        <v>19.80708593045394</v>
       </c>
       <c r="C113">
-        <v>0.04558119925332103</v>
+        <v>0.02077062924597487</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>18.51545532587254</v>
+        <v>18.9082398718153</v>
       </c>
       <c r="C114">
-        <v>0.04154571789837743</v>
+        <v>0.0167652493955047</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18.32151752892615</v>
+        <v>19.84363284238743</v>
       </c>
       <c r="C115">
-        <v>0.04473100600592975</v>
+        <v>0.03292720008687099</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.50385287713375</v>
+        <v>19.59940622634012</v>
       </c>
       <c r="C116">
-        <v>0.03376216082222349</v>
+        <v>0.04842097097315245</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>19.39788809095763</v>
+        <v>18.2991738449915</v>
       </c>
       <c r="C117">
-        <v>0.04192716164775681</v>
+        <v>0.01159883003910401</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.69636929767323</v>
+        <v>18.06393145488524</v>
       </c>
       <c r="C118">
-        <v>0.04760938451102301</v>
+        <v>0.009824843972650016</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>18.65940270512392</v>
+        <v>19.08175854010595</v>
       </c>
       <c r="C119">
-        <v>0.00536534784416501</v>
+        <v>0.009022496848781878</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>19.5887521520096</v>
+        <v>19.31450910977395</v>
       </c>
       <c r="C120">
-        <v>0.04360425032303694</v>
+        <v>0.01026318328377561</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>19.69297340070412</v>
+        <v>19.81287014294498</v>
       </c>
       <c r="C121">
-        <v>0.02559154142461951</v>
+        <v>0.005038535375085813</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>19.6086699779971</v>
+        <v>18.09928076438432</v>
       </c>
       <c r="C122">
-        <v>0.04699440651410652</v>
+        <v>0.04976619627776965</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>18.36833789005666</v>
+        <v>19.60080059444685</v>
       </c>
       <c r="C123">
-        <v>0.02326092579410331</v>
+        <v>0.02544794588934994</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.07205975216639</v>
+        <v>19.72715130796169</v>
       </c>
       <c r="C124">
-        <v>0.0438610733466424</v>
+        <v>0.04684755251215722</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.11683065049563</v>
+        <v>18.21185476646663</v>
       </c>
       <c r="C125">
-        <v>0.01152477496119197</v>
+        <v>0.04370271412125501</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>18.82313144029484</v>
+        <v>19.53637853720138</v>
       </c>
       <c r="C126">
-        <v>0.01613830909316693</v>
+        <v>0.02385320322309104</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>19.55926265288683</v>
+        <v>19.24724023111047</v>
       </c>
       <c r="C127">
-        <v>0.01919035147073733</v>
+        <v>0.02292746644408175</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>18.2740033607093</v>
+        <v>19.01694598924045</v>
       </c>
       <c r="C128">
-        <v>0.03058020294677134</v>
+        <v>0.0237693919706057</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>18.28894451087462</v>
+        <v>19.90830887056146</v>
       </c>
       <c r="C129">
-        <v>0.04462657169015669</v>
+        <v>0.03758675072935854</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>18.1687811579036</v>
+        <v>18.05022728911907</v>
       </c>
       <c r="C130">
-        <v>0.01593401149552839</v>
+        <v>0.04610035699639923</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>18.19349048936242</v>
+        <v>18.34412251779064</v>
       </c>
       <c r="C131">
-        <v>0.02734073038143851</v>
+        <v>0.009975118961845018</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.35907004661465</v>
+        <v>18.62968422313498</v>
       </c>
       <c r="C132">
-        <v>0.00630908968068576</v>
+        <v>0.03597973615614508</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>18.69894084011075</v>
+        <v>18.58733155244647</v>
       </c>
       <c r="C133">
-        <v>0.04560676066589455</v>
+        <v>0.04163491333794537</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>18.71539134561101</v>
+        <v>19.2561004971158</v>
       </c>
       <c r="C134">
-        <v>0.02969909266859813</v>
+        <v>0.01060666748034201</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>18.15809792355671</v>
+        <v>18.70894601639246</v>
       </c>
       <c r="C135">
-        <v>0.0144859464228512</v>
+        <v>0.03081360869681729</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>19.11476109300639</v>
+        <v>19.42368543559891</v>
       </c>
       <c r="C136">
-        <v>0.009517662342712143</v>
+        <v>0.0262031557407554</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>19.88492146295321</v>
+        <v>19.53194611490299</v>
       </c>
       <c r="C137">
-        <v>0.02305094804422011</v>
+        <v>0.03589369769691575</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.0161927910722</v>
+        <v>19.3467673416874</v>
       </c>
       <c r="C138">
-        <v>0.0310806318892089</v>
+        <v>0.02790176500149177</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>19.53803142636071</v>
+        <v>18.64637569977623</v>
       </c>
       <c r="C139">
-        <v>0.007494948719259325</v>
+        <v>0.01052911199396195</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>19.47287703685437</v>
+        <v>19.23171927084179</v>
       </c>
       <c r="C140">
-        <v>0.0430177686339286</v>
+        <v>0.01376630009013158</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>18.12062986319753</v>
+        <v>19.85590713432213</v>
       </c>
       <c r="C141">
-        <v>0.01172170733102196</v>
+        <v>0.009582481233252949</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>18.18256447203789</v>
+        <v>18.02523919064516</v>
       </c>
       <c r="C142">
-        <v>0.0249720134203309</v>
+        <v>0.04052621660162495</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>18.65053612941573</v>
+        <v>19.81884508473816</v>
       </c>
       <c r="C143">
-        <v>0.01503418062039221</v>
+        <v>0.02574622385676728</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>18.90307703925009</v>
+        <v>19.44526288964955</v>
       </c>
       <c r="C144">
-        <v>0.04829459363494217</v>
+        <v>0.01410701902175636</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>19.85029016986652</v>
+        <v>19.67225765623054</v>
       </c>
       <c r="C145">
-        <v>0.02957403410237434</v>
+        <v>0.03932644436456212</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>18.68526245451338</v>
+        <v>18.34470526095149</v>
       </c>
       <c r="C146">
-        <v>0.04792057500756792</v>
+        <v>0.03125464056267742</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>19.53392312144808</v>
+        <v>18.05860055202091</v>
       </c>
       <c r="C147">
-        <v>0.01196997672106327</v>
+        <v>0.01926314389808146</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>19.52191651402516</v>
+        <v>18.18266382513637</v>
       </c>
       <c r="C148">
-        <v>0.01720025165681647</v>
+        <v>0.03608534881420045</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>18.57997128537239</v>
+        <v>19.64294564829803</v>
       </c>
       <c r="C149">
-        <v>0.01579184985358411</v>
+        <v>0.007987050990225791</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>18.76085771001727</v>
+        <v>19.77116582729261</v>
       </c>
       <c r="C150">
-        <v>0.007843760999941708</v>
+        <v>0.03368432527887016</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>18.84150373314563</v>
+        <v>19.70230978381084</v>
       </c>
       <c r="C151">
-        <v>0.02816242502742125</v>
+        <v>0.01911924402032116</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.9964910136121</v>
+        <v>19.98522145028609</v>
       </c>
       <c r="C152">
-        <v>0.03584470952279754</v>
+        <v>0.02296987277858859</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.8497615556618</v>
+        <v>19.02630980711638</v>
       </c>
       <c r="C153">
-        <v>0.04668037683127333</v>
+        <v>0.0129311022355183</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.97091094404347</v>
+        <v>18.48127156448724</v>
       </c>
       <c r="C154">
-        <v>0.009626068563491449</v>
+        <v>0.01804600930728163</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>18.7678904447218</v>
+        <v>19.67352635492594</v>
       </c>
       <c r="C155">
-        <v>0.0246050033335961</v>
+        <v>0.01234589608285605</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>18.83362115370859</v>
+        <v>18.09938399394174</v>
       </c>
       <c r="C156">
-        <v>0.009284051450239337</v>
+        <v>0.01152822255221264</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.51454522759354</v>
+        <v>18.85760295700118</v>
       </c>
       <c r="C157">
-        <v>0.04441715978361732</v>
+        <v>0.04424452117380297</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>18.24537510005694</v>
+        <v>19.01966365887525</v>
       </c>
       <c r="C158">
-        <v>0.0469502550899993</v>
+        <v>0.0144810502562518</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>18.50271978599022</v>
+        <v>19.22740321532978</v>
       </c>
       <c r="C159">
-        <v>0.0200484572206325</v>
+        <v>0.02625891378539003</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>18.27652006272811</v>
+        <v>19.19409111991204</v>
       </c>
       <c r="C160">
-        <v>0.04321140549276134</v>
+        <v>0.04185284648039645</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>19.43114709708606</v>
+        <v>19.62943976382635</v>
       </c>
       <c r="C161">
-        <v>0.01414210282903017</v>
+        <v>0.03865071010948248</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>18.6082351331292</v>
+        <v>19.08931472493595</v>
       </c>
       <c r="C162">
-        <v>0.04252448786759205</v>
+        <v>0.0167923696838272</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18.28544112577067</v>
+        <v>18.88928496758396</v>
       </c>
       <c r="C163">
-        <v>0.0381642640619541</v>
+        <v>0.02907054543568598</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>18.35135741219833</v>
+        <v>18.13985515326108</v>
       </c>
       <c r="C164">
-        <v>0.02052372562521773</v>
+        <v>0.02224243322740187</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>19.25450049125288</v>
+        <v>19.29243764541127</v>
       </c>
       <c r="C165">
-        <v>0.04933796115278909</v>
+        <v>0.03887565249727895</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>19.16441747642266</v>
+        <v>19.26533492553394</v>
       </c>
       <c r="C166">
-        <v>0.01473264113047176</v>
+        <v>0.03916408560571974</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>19.52140210878094</v>
+        <v>18.56289408253337</v>
       </c>
       <c r="C167">
-        <v>0.01366986590798957</v>
+        <v>0.04455739046295491</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>19.85239730572564</v>
+        <v>18.39955480833083</v>
       </c>
       <c r="C168">
-        <v>0.03527022264815217</v>
+        <v>0.04665235730623938</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>18.0977650437897</v>
+        <v>18.96770287290708</v>
       </c>
       <c r="C169">
-        <v>0.02063738455714077</v>
+        <v>0.04810832522453647</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.35620693952255</v>
+        <v>19.6371898179645</v>
       </c>
       <c r="C170">
-        <v>0.02791764858826219</v>
+        <v>0.01457439131307211</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>18.03267555914044</v>
+        <v>18.16556219952345</v>
       </c>
       <c r="C171">
-        <v>0.03746444668712647</v>
+        <v>0.01933518880405532</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>18.05313060670397</v>
+        <v>18.30479819888192</v>
       </c>
       <c r="C172">
-        <v>0.04440051189636209</v>
+        <v>0.02153072221763673</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.60383624471183</v>
+        <v>19.10806729482984</v>
       </c>
       <c r="C173">
-        <v>0.006461403133329308</v>
+        <v>0.02356644346582812</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.33549323456708</v>
+        <v>18.13700976650133</v>
       </c>
       <c r="C174">
-        <v>0.01854011393542526</v>
+        <v>0.01663403268995392</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.9536670243211</v>
+        <v>19.35935481421669</v>
       </c>
       <c r="C175">
-        <v>0.04902696509258352</v>
+        <v>0.03294763554553509</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>18.99815354935876</v>
+        <v>18.70074078123029</v>
       </c>
       <c r="C176">
-        <v>0.02991196952652114</v>
+        <v>0.04478506561180279</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.36393640580577</v>
+        <v>18.08478457630719</v>
       </c>
       <c r="C177">
-        <v>0.02375034198171395</v>
+        <v>0.04993426775842231</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.69732727572788</v>
+        <v>18.57606822392183</v>
       </c>
       <c r="C178">
-        <v>0.03828771767217933</v>
+        <v>0.04561005394637187</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.1980947843526</v>
+        <v>19.2528201284133</v>
       </c>
       <c r="C179">
-        <v>0.02483904921989999</v>
+        <v>0.04895424757278177</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.17270467185073</v>
+        <v>18.0026636948669</v>
       </c>
       <c r="C180">
-        <v>0.02726698258420376</v>
+        <v>0.03236532990738829</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.53129578215831</v>
+        <v>18.38659825734277</v>
       </c>
       <c r="C181">
-        <v>0.007932479669198295</v>
+        <v>0.02226234731171264</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.34146395999721</v>
+        <v>18.39119733427973</v>
       </c>
       <c r="C182">
-        <v>0.007678404480712972</v>
+        <v>0.02874775424870668</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.44804209569462</v>
+        <v>19.45731915409987</v>
       </c>
       <c r="C183">
-        <v>0.01965700540212349</v>
+        <v>0.03498996189390339</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.01612982804178</v>
+        <v>18.05105358095737</v>
       </c>
       <c r="C184">
-        <v>0.04284167296132957</v>
+        <v>0.02214547375842126</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>19.92939853712589</v>
+        <v>19.51662262753764</v>
       </c>
       <c r="C185">
-        <v>0.04010862875823135</v>
+        <v>0.0143183431450754</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.37168049680724</v>
+        <v>18.10012257054813</v>
       </c>
       <c r="C186">
-        <v>0.0480854810142829</v>
+        <v>0.01138712863817469</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>19.32266623153169</v>
+        <v>19.82454568150895</v>
       </c>
       <c r="C187">
-        <v>0.01294784004684803</v>
+        <v>0.04203628756177474</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>19.56525083098045</v>
+        <v>18.24032454960953</v>
       </c>
       <c r="C188">
-        <v>0.04722911336156687</v>
+        <v>0.02039826911236977</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.86793244975221</v>
+        <v>19.83017011823772</v>
       </c>
       <c r="C189">
-        <v>0.04179664610701092</v>
+        <v>0.0237955613553568</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19.83834601029401</v>
+        <v>18.11431404348737</v>
       </c>
       <c r="C190">
-        <v>0.006775838473134711</v>
+        <v>0.01198903027357364</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.20045992354658</v>
+        <v>18.02521681033639</v>
       </c>
       <c r="C191">
-        <v>0.04826553052936332</v>
+        <v>0.0312077766630363</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>19.44768996175101</v>
+        <v>18.31157690767254</v>
       </c>
       <c r="C192">
-        <v>0.02520415808759906</v>
+        <v>0.03678938417258092</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.64692872970987</v>
+        <v>18.98068199869902</v>
       </c>
       <c r="C193">
-        <v>0.02606349258977124</v>
+        <v>0.01779805924082933</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>19.06027197186625</v>
+        <v>19.86393191284865</v>
       </c>
       <c r="C194">
-        <v>0.018987147084492</v>
+        <v>0.01444027714002182</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.19161786354633</v>
+        <v>19.09511754642705</v>
       </c>
       <c r="C195">
-        <v>0.04500502077731319</v>
+        <v>0.03072785739370085</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>19.18674829008677</v>
+        <v>19.82765865314582</v>
       </c>
       <c r="C196">
-        <v>0.03012821950496246</v>
+        <v>0.02144504905696934</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>19.17790105137096</v>
+        <v>19.60172045791073</v>
       </c>
       <c r="C197">
-        <v>0.04834182305657453</v>
+        <v>0.01753248926786358</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>19.57933189154003</v>
+        <v>19.134054523535</v>
       </c>
       <c r="C198">
-        <v>0.02183009194746405</v>
+        <v>0.006803415656416397</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>19.94447931574032</v>
+        <v>19.52802165760233</v>
       </c>
       <c r="C199">
-        <v>0.01954032345094557</v>
+        <v>0.03029903322385279</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>19.67258028743682</v>
+        <v>19.68286798557639</v>
       </c>
       <c r="C200">
-        <v>0.03921580863393467</v>
+        <v>0.02211828590344973</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>19.96045211701855</v>
+        <v>18.38375998424128</v>
       </c>
       <c r="C201">
-        <v>0.03901676742666159</v>
+        <v>0.04764425651288607</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>18.01904638422569</v>
+        <v>19.13938437057084</v>
       </c>
       <c r="C202">
-        <v>0.01291565421362718</v>
+        <v>0.04339995714580758</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>19.95059504149014</v>
+        <v>18.39992879139065</v>
       </c>
       <c r="C203">
-        <v>0.03336734807863604</v>
+        <v>0.008970985925502469</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>19.50144162128795</v>
+        <v>18.82814187954885</v>
       </c>
       <c r="C204">
-        <v>0.03852527712732152</v>
+        <v>0.03330862717369833</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>18.45563991982685</v>
+        <v>18.21898857411366</v>
       </c>
       <c r="C205">
-        <v>0.00689222969043812</v>
+        <v>0.009787550791097367</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>19.60014119150387</v>
+        <v>19.18649205001784</v>
       </c>
       <c r="C206">
-        <v>0.03459192027816779</v>
+        <v>0.03961243634477866</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>19.26273001851282</v>
+        <v>19.38543560063428</v>
       </c>
       <c r="C207">
-        <v>0.04392504998416372</v>
+        <v>0.02515314405838654</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>18.02677981255772</v>
+        <v>18.67395279206324</v>
       </c>
       <c r="C208">
-        <v>0.04279378758154594</v>
+        <v>0.02169175935098182</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>18.52331227878341</v>
+        <v>18.29886833207154</v>
       </c>
       <c r="C209">
-        <v>0.04011999195702345</v>
+        <v>0.02749501782993899</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>19.82745048965078</v>
+        <v>19.81627421580207</v>
       </c>
       <c r="C210">
-        <v>0.04391073717188589</v>
+        <v>0.01688966166607064</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>18.22876582063153</v>
+        <v>19.16470478947172</v>
       </c>
       <c r="C211">
-        <v>0.04959411707237633</v>
+        <v>0.02460316098569635</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>18.6141074887798</v>
+        <v>19.71308456225437</v>
       </c>
       <c r="C212">
-        <v>0.03016382699731289</v>
+        <v>0.04590654379600592</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>18.12685088482381</v>
+        <v>18.39989927733864</v>
       </c>
       <c r="C213">
-        <v>0.03162719542433919</v>
+        <v>0.0442096952446864</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>18.76677039410591</v>
+        <v>19.78764431291699</v>
       </c>
       <c r="C214">
-        <v>0.01793995988678719</v>
+        <v>0.04999213163609419</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>18.34053432467431</v>
+        <v>18.63634687359755</v>
       </c>
       <c r="C215">
-        <v>0.01605416302435275</v>
+        <v>0.0299004146478763</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>19.42455419866109</v>
+        <v>18.11909864901932</v>
       </c>
       <c r="C216">
-        <v>0.04221100127401025</v>
+        <v>0.03481503568678559</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>19.24286830914639</v>
+        <v>18.73699833533731</v>
       </c>
       <c r="C217">
-        <v>0.02506870991421557</v>
+        <v>0.03187613398730051</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>18.52597048096394</v>
+        <v>18.45846752095699</v>
       </c>
       <c r="C218">
-        <v>0.02946944117005248</v>
+        <v>0.03053762602431789</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>18.41577363863413</v>
+        <v>19.77770723185043</v>
       </c>
       <c r="C219">
-        <v>0.02364144676520636</v>
+        <v>0.01017988365314105</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>19.97927028906733</v>
+        <v>19.99815557965932</v>
       </c>
       <c r="C220">
-        <v>0.02892022422592527</v>
+        <v>0.01713414862332419</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>18.81943070626761</v>
+        <v>19.70887705455762</v>
       </c>
       <c r="C221">
-        <v>0.0391632493706307</v>
+        <v>0.04032946012331926</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>18.41699021813037</v>
+        <v>18.78996062382362</v>
       </c>
       <c r="C222">
-        <v>0.0462384289644501</v>
+        <v>0.01778974778774104</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>19.39036349547331</v>
+        <v>18.18724975952138</v>
       </c>
       <c r="C223">
-        <v>0.04389221599051238</v>
+        <v>0.02534508602574219</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>18.30190004872676</v>
+        <v>18.60600289620371</v>
       </c>
       <c r="C224">
-        <v>0.02184022447780382</v>
+        <v>0.02707474149357184</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>18.91252538027087</v>
+        <v>18.01102375689448</v>
       </c>
       <c r="C225">
-        <v>0.00809711516550754</v>
+        <v>0.04598064962710913</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>18.18688208812838</v>
+        <v>18.10432788181117</v>
       </c>
       <c r="C226">
-        <v>0.03875228982350085</v>
+        <v>0.02545432076552399</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>18.87154823839806</v>
+        <v>18.72842108949477</v>
       </c>
       <c r="C227">
-        <v>0.01214879170519934</v>
+        <v>0.04095077963936593</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>19.35676853455504</v>
+        <v>18.02563146381397</v>
       </c>
       <c r="C228">
-        <v>0.030510573929555</v>
+        <v>0.02735205734096045</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>19.31363955755015</v>
+        <v>18.56454500364391</v>
       </c>
       <c r="C229">
-        <v>0.02983650734996617</v>
+        <v>0.02917577289545885</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>19.40302975917005</v>
+        <v>18.15897111252922</v>
       </c>
       <c r="C230">
-        <v>0.02269993859221039</v>
+        <v>0.04613115489154619</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>19.25358667275704</v>
+        <v>19.31195009386199</v>
       </c>
       <c r="C231">
-        <v>0.02585919983267492</v>
+        <v>0.01154672449393586</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>18.54220879263145</v>
+        <v>18.11263045098137</v>
       </c>
       <c r="C232">
-        <v>0.009596161148937913</v>
+        <v>0.03754180160927784</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>18.26143787008108</v>
+        <v>19.77612023323081</v>
       </c>
       <c r="C233">
-        <v>0.03808437113392271</v>
+        <v>0.006354511822511446</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>19.56621212065615</v>
+        <v>19.77559570345726</v>
       </c>
       <c r="C234">
-        <v>0.02187946905599671</v>
+        <v>0.01945463441240108</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>19.48130976230205</v>
+        <v>19.69425288135961</v>
       </c>
       <c r="C235">
-        <v>0.04521058106685905</v>
+        <v>0.03474920019850886</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>18.27998035089631</v>
+        <v>18.77555850983673</v>
       </c>
       <c r="C236">
-        <v>0.0378216375492474</v>
+        <v>0.02411535070389256</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>18.80986906777298</v>
+        <v>18.47178675393585</v>
       </c>
       <c r="C237">
-        <v>0.03355941305319117</v>
+        <v>0.01538922159546673</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>19.11664803696747</v>
+        <v>19.67954844351677</v>
       </c>
       <c r="C238">
-        <v>0.006223457597604072</v>
+        <v>0.03559068293592118</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>18.83237894969592</v>
+        <v>19.66609143001011</v>
       </c>
       <c r="C239">
-        <v>0.01191776599797317</v>
+        <v>0.04763487366878041</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>18.37271594667457</v>
+        <v>19.62345488815104</v>
       </c>
       <c r="C240">
-        <v>0.04610550534443116</v>
+        <v>0.04277436377327697</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>19.8214803171469</v>
+        <v>18.46783270409271</v>
       </c>
       <c r="C241">
-        <v>0.04606627021247593</v>
+        <v>0.02891529042607388</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>18.39846395678416</v>
+        <v>19.01373110821144</v>
       </c>
       <c r="C242">
-        <v>0.03510295784817909</v>
+        <v>0.02878352867958984</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>18.61006463157973</v>
+        <v>19.80017685738976</v>
       </c>
       <c r="C243">
-        <v>0.01260983186955459</v>
+        <v>0.02224502493989603</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>19.00489259573591</v>
+        <v>19.97602503059961</v>
       </c>
       <c r="C244">
-        <v>0.01076884429257548</v>
+        <v>0.03830244127432176</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>18.47565476415583</v>
+        <v>18.75179765505771</v>
       </c>
       <c r="C245">
-        <v>0.04724294159418679</v>
+        <v>0.01051813282730712</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>18.69116988476933</v>
+        <v>18.13771059153459</v>
       </c>
       <c r="C246">
-        <v>0.04704675235992204</v>
+        <v>0.008833062778444265</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>19.27685550762469</v>
+        <v>19.21883267793591</v>
       </c>
       <c r="C247">
-        <v>0.04140682056868879</v>
+        <v>0.02386414193028228</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>18.68682370479554</v>
+        <v>19.58330072344715</v>
       </c>
       <c r="C248">
-        <v>0.02184992426499584</v>
+        <v>0.02627858601299798</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>19.32208448182931</v>
+        <v>18.28223700298765</v>
       </c>
       <c r="C249">
-        <v>0.0156938431168126</v>
+        <v>0.009436364173791269</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>19.27110518158159</v>
+        <v>19.30126231686769</v>
       </c>
       <c r="C250">
-        <v>0.006094331269541247</v>
+        <v>0.01634000116277745</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>18.3554080637345</v>
+        <v>18.91223619561596</v>
       </c>
       <c r="C251">
-        <v>0.04161468367939303</v>
+        <v>0.0295090108412803</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>19.09729261620918</v>
+        <v>19.30821195341908</v>
       </c>
       <c r="C252">
-        <v>0.04847397489951286</v>
+        <v>0.03326961449419244</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>18.44025611787929</v>
+        <v>19.31253240841572</v>
       </c>
       <c r="C253">
-        <v>0.03815541887070305</v>
+        <v>0.0488041643213328</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>18.43507426804403</v>
+        <v>18.11241105854006</v>
       </c>
       <c r="C254">
-        <v>0.04609118728157304</v>
+        <v>0.02886972885175927</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>19.10020379267581</v>
+        <v>19.82172202171406</v>
       </c>
       <c r="C255">
-        <v>0.04977600280957767</v>
+        <v>0.04343979000858126</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>18.84773205981818</v>
+        <v>19.3755963723614</v>
       </c>
       <c r="C256">
-        <v>0.03483056511115718</v>
+        <v>0.009553063697240113</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>18.52680066375537</v>
+        <v>19.0636982972578</v>
       </c>
       <c r="C257">
-        <v>0.02603242450730711</v>
+        <v>0.01798539872744648</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>19.10396171535693</v>
+        <v>19.80855972275804</v>
       </c>
       <c r="C258">
-        <v>0.04612176259078183</v>
+        <v>0.02036089971456308</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>19.31608391628419</v>
+        <v>19.47094844841084</v>
       </c>
       <c r="C259">
-        <v>0.04551085046271573</v>
+        <v>0.01978895620873128</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>18.2468747845426</v>
+        <v>18.2919498339584</v>
       </c>
       <c r="C260">
-        <v>0.04334458507335612</v>
+        <v>0.04763688190373191</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>19.62834612304211</v>
+        <v>18.71405047734522</v>
       </c>
       <c r="C261">
-        <v>0.01810524124077621</v>
+        <v>0.0365862910444362</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>19.88246738216844</v>
+        <v>18.49015475321277</v>
       </c>
       <c r="C262">
-        <v>0.04189575659815238</v>
+        <v>0.01892561179886535</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>18.94353534746626</v>
+        <v>18.54431041603775</v>
       </c>
       <c r="C263">
-        <v>0.01098854564417105</v>
+        <v>0.03694021464292636</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>18.89824508699197</v>
+        <v>18.93068451976714</v>
       </c>
       <c r="C264">
-        <v>0.0310294571570832</v>
+        <v>0.01482195569186194</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>18.58645636304263</v>
+        <v>18.23964472658567</v>
       </c>
       <c r="C265">
-        <v>0.04907736452768303</v>
+        <v>0.04670958419390638</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>19.0419334966556</v>
+        <v>18.18667546019543</v>
       </c>
       <c r="C266">
-        <v>0.04651720323117409</v>
+        <v>0.02412085574585992</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>19.02029664986345</v>
+        <v>18.6304326998221</v>
       </c>
       <c r="C267">
-        <v>0.0123016155838743</v>
+        <v>0.01749086230740804</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>19.72787041457276</v>
+        <v>19.61459968675095</v>
       </c>
       <c r="C268">
-        <v>0.01779365553661394</v>
+        <v>0.02424860645044011</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>18.9462747435718</v>
+        <v>18.61574301175189</v>
       </c>
       <c r="C269">
-        <v>0.00811477641009889</v>
+        <v>0.04599144569171706</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>19.56604501480391</v>
+        <v>19.77258921953589</v>
       </c>
       <c r="C270">
-        <v>0.04102186905214714</v>
+        <v>0.04618373302679904</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>19.54924434981719</v>
+        <v>18.45341584004603</v>
       </c>
       <c r="C271">
-        <v>0.01009542561109381</v>
+        <v>0.03463593806854638</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>18.05159049792973</v>
+        <v>19.72210774890137</v>
       </c>
       <c r="C272">
-        <v>0.03097376476636146</v>
+        <v>0.03697618255531466</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>18.63369150355265</v>
+        <v>18.52944202975686</v>
       </c>
       <c r="C273">
-        <v>0.0201365300359465</v>
+        <v>0.04828141543823215</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>19.61714591673481</v>
+        <v>18.42216771058955</v>
       </c>
       <c r="C274">
-        <v>0.01662824010773775</v>
+        <v>0.03825420731576798</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>19.51359935494518</v>
+        <v>18.86261251237235</v>
       </c>
       <c r="C275">
-        <v>0.02944208463873906</v>
+        <v>0.03653400164877723</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>19.14501855488882</v>
+        <v>19.33956992723168</v>
       </c>
       <c r="C276">
-        <v>0.01010322389114543</v>
+        <v>0.01258881677937087</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>18.1146820381811</v>
+        <v>18.68608387657074</v>
       </c>
       <c r="C277">
-        <v>0.03120049200528933</v>
+        <v>0.03764001188409423</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>19.26573099254668</v>
+        <v>19.96253303237065</v>
       </c>
       <c r="C278">
-        <v>0.02075302444263971</v>
+        <v>0.04575341535703518</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>19.45865118560845</v>
+        <v>19.54611350030762</v>
       </c>
       <c r="C279">
-        <v>0.04191534463815126</v>
+        <v>0.0109781110659396</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>18.1488730063954</v>
+        <v>19.65738631355059</v>
       </c>
       <c r="C280">
-        <v>0.02415941738391736</v>
+        <v>0.02670798819270695</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>19.37728438757814</v>
+        <v>18.64477519824766</v>
       </c>
       <c r="C281">
-        <v>0.009701930057965949</v>
+        <v>0.04346282171932753</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>19.44131581710737</v>
+        <v>19.71465323253914</v>
       </c>
       <c r="C282">
-        <v>0.01481676650763128</v>
+        <v>0.02719001079212913</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>18.30334330907919</v>
+        <v>19.71171857145179</v>
       </c>
       <c r="C283">
-        <v>0.03326949835304154</v>
+        <v>0.03210812281828795</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>18.16177058992599</v>
+        <v>18.41337584717221</v>
       </c>
       <c r="C284">
-        <v>0.01116712121956891</v>
+        <v>0.04548848768020465</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>18.06080510696323</v>
+        <v>19.94936627285515</v>
       </c>
       <c r="C285">
-        <v>0.02942339640429153</v>
+        <v>0.02874129990398409</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>18.87665319425601</v>
+        <v>19.96961896395711</v>
       </c>
       <c r="C286">
-        <v>0.01064416363331301</v>
+        <v>0.02772136752480121</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>18.9497176318718</v>
+        <v>19.68640488729957</v>
       </c>
       <c r="C287">
-        <v>0.03721190706276655</v>
+        <v>0.01864344550526073</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>19.35398981006075</v>
+        <v>18.40490427370444</v>
       </c>
       <c r="C288">
-        <v>0.04561555854729744</v>
+        <v>0.01484472126220164</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>19.06707210256143</v>
+        <v>18.28793954233702</v>
       </c>
       <c r="C289">
-        <v>0.04709133771394344</v>
+        <v>0.03332353061924241</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>19.81036109332477</v>
+        <v>18.56419576181836</v>
       </c>
       <c r="C290">
-        <v>0.01771467051349561</v>
+        <v>0.02868757095411708</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>19.15389766579909</v>
+        <v>19.35621421721822</v>
       </c>
       <c r="C291">
-        <v>0.01519286843300487</v>
+        <v>0.01712829989034923</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>19.82859076746725</v>
+        <v>19.9765464503009</v>
       </c>
       <c r="C292">
-        <v>0.03851610946535383</v>
+        <v>0.02370150328303446</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>18.76663595025085</v>
+        <v>18.47701111854449</v>
       </c>
       <c r="C293">
-        <v>0.04990537428033195</v>
+        <v>0.02046256964776266</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>19.82111001219574</v>
+        <v>18.44392660694117</v>
       </c>
       <c r="C294">
-        <v>0.04114207261470963</v>
+        <v>0.02941887727256351</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>19.1517225672988</v>
+        <v>18.11311872731396</v>
       </c>
       <c r="C295">
-        <v>0.02692289688867818</v>
+        <v>0.04875302969950223</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>18.43091584084465</v>
+        <v>18.63670264543157</v>
       </c>
       <c r="C296">
-        <v>0.02445173631828912</v>
+        <v>0.01436810194937848</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>19.43740682418891</v>
+        <v>19.63717066869357</v>
       </c>
       <c r="C297">
-        <v>0.00658176992045597</v>
+        <v>0.02841660529419616</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>18.78353609375327</v>
+        <v>19.83485251815126</v>
       </c>
       <c r="C298">
-        <v>0.02125841986806934</v>
+        <v>0.04033921074270271</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>19.83414143840374</v>
+        <v>18.63870272745299</v>
       </c>
       <c r="C299">
-        <v>0.03143191641932392</v>
+        <v>0.04180175410344958</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>19.33552111553263</v>
+        <v>18.0721302917595</v>
       </c>
       <c r="C300">
-        <v>0.01804789175805401</v>
+        <v>0.03119504493950956</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>19.76384732547049</v>
+        <v>18.82943142694095</v>
       </c>
       <c r="C301">
-        <v>0.01506891809026477</v>
+        <v>0.03194772132966451</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>19.19049466478827</v>
+        <v>19.8518832695346</v>
       </c>
       <c r="C302">
-        <v>0.02418227552601738</v>
+        <v>0.03676393627164276</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>19.11362572086394</v>
+        <v>19.15485127911956</v>
       </c>
       <c r="C303">
-        <v>0.03878742124019798</v>
+        <v>0.03537963339565196</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>18.91342564561134</v>
+        <v>18.55645233780177</v>
       </c>
       <c r="C304">
-        <v>0.01643025110879866</v>
+        <v>0.02907725993915063</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>18.36311783076274</v>
+        <v>19.07526127399501</v>
       </c>
       <c r="C305">
-        <v>0.03936774389758569</v>
+        <v>0.02219438364663981</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>18.22806319944129</v>
+        <v>19.39962307504116</v>
       </c>
       <c r="C306">
-        <v>0.007151745509236782</v>
+        <v>0.04885600466823211</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.4437607980551</v>
+        <v>18.12214304585099</v>
       </c>
       <c r="C307">
-        <v>0.02177109373814018</v>
+        <v>0.02002332232892447</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>19.45458914279575</v>
+        <v>19.43867315718698</v>
       </c>
       <c r="C308">
-        <v>0.02727586859319478</v>
+        <v>0.02166551882201385</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>18.30691105566145</v>
+        <v>18.83241281830701</v>
       </c>
       <c r="C309">
-        <v>0.02012706416562218</v>
+        <v>0.0358545791712521</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>18.0536655581952</v>
+        <v>19.08756976105387</v>
       </c>
       <c r="C310">
-        <v>0.02612964080857789</v>
+        <v>0.04434857513697074</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>19.92530873630928</v>
+        <v>18.25801145108084</v>
       </c>
       <c r="C311">
-        <v>0.0492099262387813</v>
+        <v>0.00583711864137771</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>18.12884787976939</v>
+        <v>19.49819446364243</v>
       </c>
       <c r="C312">
-        <v>0.02121996872103219</v>
+        <v>0.01740976397771885</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.52990977246776</v>
+        <v>18.31073159774429</v>
       </c>
       <c r="C313">
-        <v>0.02718146959458812</v>
+        <v>0.04591992966131613</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>19.01431079609788</v>
+        <v>18.4286183344934</v>
       </c>
       <c r="C314">
-        <v>0.03549795276865372</v>
+        <v>0.007272884472377919</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>19.57300237048515</v>
+        <v>18.49859211988463</v>
       </c>
       <c r="C315">
-        <v>0.04868765101494622</v>
+        <v>0.006256134543346404</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>19.75455577741624</v>
+        <v>19.44585428196933</v>
       </c>
       <c r="C316">
-        <v>0.04210275386732584</v>
+        <v>0.0467982355111719</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>18.32371569958086</v>
+        <v>18.61605559418645</v>
       </c>
       <c r="C317">
-        <v>0.01190113450833587</v>
+        <v>0.0261554145665827</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>18.52088059685386</v>
+        <v>18.49927663446019</v>
       </c>
       <c r="C318">
-        <v>0.01506405791769142</v>
+        <v>0.03014281333118309</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>18.95215676194191</v>
+        <v>19.43593769016</v>
       </c>
       <c r="C319">
-        <v>0.02049223011440493</v>
+        <v>0.02113806016817208</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>19.87374184118283</v>
+        <v>18.84508359817592</v>
       </c>
       <c r="C320">
-        <v>0.03062899078718955</v>
+        <v>0.01002249800973352</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>18.48962087747272</v>
+        <v>18.48935144022154</v>
       </c>
       <c r="C321">
-        <v>0.0467832785906037</v>
+        <v>0.0301659571777459</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>19.6890444050938</v>
+        <v>18.71541782306958</v>
       </c>
       <c r="C322">
-        <v>0.04021545949569411</v>
+        <v>0.02569909093428988</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>18.06733060935769</v>
+        <v>19.28631767922312</v>
       </c>
       <c r="C323">
-        <v>0.005595650799812742</v>
+        <v>0.02090828829335178</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>18.66130911809918</v>
+        <v>19.27753240007415</v>
       </c>
       <c r="C324">
-        <v>0.01572650117365769</v>
+        <v>0.03998718855561305</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>19.81614035833992</v>
+        <v>18.92492484851721</v>
       </c>
       <c r="C325">
-        <v>0.04520424081049888</v>
+        <v>0.02517175743969135</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>19.64703404450432</v>
+        <v>19.69577490006291</v>
       </c>
       <c r="C326">
-        <v>0.006917174676315736</v>
+        <v>0.0489596973067468</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>19.29836395468784</v>
+        <v>19.80726560001131</v>
       </c>
       <c r="C327">
-        <v>0.0146466047853772</v>
+        <v>0.03397034431249509</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>19.35696867837835</v>
+        <v>19.63326032037069</v>
       </c>
       <c r="C328">
-        <v>0.0241159322763749</v>
+        <v>0.007714671827062206</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>19.68352156981459</v>
+        <v>18.14307713381886</v>
       </c>
       <c r="C329">
-        <v>0.007206304194605434</v>
+        <v>0.01131775075489938</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>18.21401999398412</v>
+        <v>19.66049626399217</v>
       </c>
       <c r="C330">
-        <v>0.03866222070278581</v>
+        <v>0.01602195801442718</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>18.96145535536582</v>
+        <v>19.36902559782756</v>
       </c>
       <c r="C331">
-        <v>0.01078171745811991</v>
+        <v>0.01732912360881</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>19.02540371580491</v>
+        <v>18.21791074795142</v>
       </c>
       <c r="C332">
-        <v>0.04155468411718402</v>
+        <v>0.0360120164829197</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>19.2544015572939</v>
+        <v>18.63550778807894</v>
       </c>
       <c r="C333">
-        <v>0.0425680945801498</v>
+        <v>0.04609452868505473</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>19.15326024901386</v>
+        <v>19.34102479738877</v>
       </c>
       <c r="C334">
-        <v>0.02901945228053163</v>
+        <v>0.009614040623226613</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>18.9391174546945</v>
+        <v>19.00755097655963</v>
       </c>
       <c r="C335">
-        <v>0.03149190983197372</v>
+        <v>0.04957410065534101</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>18.45805779134063</v>
+        <v>19.15947334124804</v>
       </c>
       <c r="C336">
-        <v>0.01497877218690459</v>
+        <v>0.03092915485843942</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>19.60253205287882</v>
+        <v>19.23639000678261</v>
       </c>
       <c r="C337">
-        <v>0.04353857435301437</v>
+        <v>0.04475224890974568</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>18.49602518289798</v>
+        <v>19.66076591604924</v>
       </c>
       <c r="C338">
-        <v>0.01116211352217046</v>
+        <v>0.02088901019524472</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>19.93538528889412</v>
+        <v>18.31173932390866</v>
       </c>
       <c r="C339">
-        <v>0.04391190298430659</v>
+        <v>0.04551174968753878</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>18.38592063735902</v>
+        <v>19.85581407102658</v>
       </c>
       <c r="C340">
-        <v>0.01446187869636093</v>
+        <v>0.03717099675613809</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>18.70948159259274</v>
+        <v>18.80528819503091</v>
       </c>
       <c r="C341">
-        <v>0.03368606915067636</v>
+        <v>0.02380885302381359</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>19.91355517152892</v>
+        <v>19.99245606717938</v>
       </c>
       <c r="C342">
-        <v>0.02611974562028304</v>
+        <v>0.02159839625078111</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>18.22459086227925</v>
+        <v>19.2314059843186</v>
       </c>
       <c r="C343">
-        <v>0.04430859760552815</v>
+        <v>0.005062698468472376</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>18.23747306712245</v>
+        <v>18.15771252408505</v>
       </c>
       <c r="C344">
-        <v>0.02792111239894142</v>
+        <v>0.03057960867993179</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>18.84219657115688</v>
+        <v>19.31477312001783</v>
       </c>
       <c r="C345">
-        <v>0.01145480623642949</v>
+        <v>0.04820926217819839</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>18.19382245727664</v>
+        <v>19.07421523384789</v>
       </c>
       <c r="C346">
-        <v>0.03695677633568857</v>
+        <v>0.04845000572290126</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>18.95609149747715</v>
+        <v>18.40920674476435</v>
       </c>
       <c r="C347">
-        <v>0.005100985156798629</v>
+        <v>0.01252919058726807</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>19.08280421976939</v>
+        <v>19.95500959079147</v>
       </c>
       <c r="C348">
-        <v>0.0348028879609822</v>
+        <v>0.03021337856816669</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>19.48403888432436</v>
+        <v>19.65254225670387</v>
       </c>
       <c r="C349">
-        <v>0.04278570577992313</v>
+        <v>0.03048593685813104</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>18.26153153797447</v>
+        <v>18.43610822260174</v>
       </c>
       <c r="C350">
-        <v>0.01218611992553537</v>
+        <v>0.04022674805880137</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>19.65038207734617</v>
+        <v>19.5211457443468</v>
       </c>
       <c r="C351">
-        <v>0.04226143473802991</v>
+        <v>0.005859159063951793</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>18.57593186543124</v>
+        <v>19.3263270366783</v>
       </c>
       <c r="C352">
-        <v>0.02260328631753011</v>
+        <v>0.006871454813524814</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>19.04230412704687</v>
+        <v>19.19547251483971</v>
       </c>
       <c r="C353">
-        <v>0.02658134861866151</v>
+        <v>0.007850596340224253</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>18.50062582041578</v>
+        <v>19.46576419559488</v>
       </c>
       <c r="C354">
-        <v>0.04021355030182227</v>
+        <v>0.008432123301195256</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>18.51056433354334</v>
+        <v>19.61915174640781</v>
       </c>
       <c r="C355">
-        <v>0.04102814964229059</v>
+        <v>0.03295313378364627</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>18.20146290577736</v>
+        <v>18.95427599706595</v>
       </c>
       <c r="C356">
-        <v>0.03025624637539228</v>
+        <v>0.01480818024511647</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>18.04895742275416</v>
+        <v>19.29407217853473</v>
       </c>
       <c r="C357">
-        <v>0.02960132015813065</v>
+        <v>0.02781860486728503</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>18.41237040664488</v>
+        <v>18.36192223131799</v>
       </c>
       <c r="C358">
-        <v>0.04805942209421853</v>
+        <v>0.03855304880500768</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>19.6725897585926</v>
+        <v>19.00058912585349</v>
       </c>
       <c r="C359">
-        <v>0.04612603440739798</v>
+        <v>0.02048943458347278</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>19.04940393036897</v>
+        <v>19.69421192286867</v>
       </c>
       <c r="C360">
-        <v>0.04549323960081948</v>
+        <v>0.03655157079878071</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>18.30792697841514</v>
+        <v>19.70506645453503</v>
       </c>
       <c r="C361">
-        <v>0.006222435702700186</v>
+        <v>0.02997138197969225</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>18.2582623781421</v>
+        <v>18.28154850597748</v>
       </c>
       <c r="C362">
-        <v>0.04538852652411298</v>
+        <v>0.03937814418063904</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>19.66906988493141</v>
+        <v>19.36902370948362</v>
       </c>
       <c r="C363">
-        <v>0.01697481612679936</v>
+        <v>0.03985926040399842</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>18.93200001648427</v>
+        <v>19.86309560007978</v>
       </c>
       <c r="C364">
-        <v>0.04305640525251929</v>
+        <v>0.01802960396742057</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>18.32257587384965</v>
+        <v>18.82779316089444</v>
       </c>
       <c r="C365">
-        <v>0.03990082121392446</v>
+        <v>0.005381134457171845</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>19.62616743675927</v>
+        <v>18.13140996104522</v>
       </c>
       <c r="C366">
-        <v>0.01761308056591207</v>
+        <v>0.02551308095776306</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>19.65553888787541</v>
+        <v>19.32805335119123</v>
       </c>
       <c r="C367">
-        <v>0.01869452670844452</v>
+        <v>0.03086826767104807</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>19.8031418386058</v>
+        <v>19.4514299628322</v>
       </c>
       <c r="C368">
-        <v>0.04630815417759445</v>
+        <v>0.02970686340412564</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>18.51596448470008</v>
+        <v>19.77473299971635</v>
       </c>
       <c r="C369">
-        <v>0.01176555326605753</v>
+        <v>0.0135702765250691</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>19.67994462338025</v>
+        <v>18.41837065039996</v>
       </c>
       <c r="C370">
-        <v>0.02041990649884081</v>
+        <v>0.03645298834809774</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>19.98422082286072</v>
+        <v>19.86847910237416</v>
       </c>
       <c r="C371">
-        <v>0.03320010260349023</v>
+        <v>0.009238461769514986</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>18.8710368907379</v>
+        <v>19.62933900748623</v>
       </c>
       <c r="C372">
-        <v>0.02694768717734367</v>
+        <v>0.04563999248425522</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>19.63023786834579</v>
+        <v>19.17738172700788</v>
       </c>
       <c r="C373">
-        <v>0.01489719726363823</v>
+        <v>0.01830587536909861</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>19.04236877963424</v>
+        <v>18.7786705937337</v>
       </c>
       <c r="C374">
-        <v>0.01621465372318258</v>
+        <v>0.0282010698367916</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>19.72458123817871</v>
+        <v>18.43998180422083</v>
       </c>
       <c r="C375">
-        <v>0.01607379338158039</v>
+        <v>0.03791316632615983</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>19.14531613896462</v>
+        <v>18.09239064187487</v>
       </c>
       <c r="C376">
-        <v>0.01593198146376817</v>
+        <v>0.03176083766421791</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>19.73928332762825</v>
+        <v>19.83646933434329</v>
       </c>
       <c r="C377">
-        <v>0.0177259387163312</v>
+        <v>0.03026379416959154</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>18.14618708855519</v>
+        <v>18.54233303125904</v>
       </c>
       <c r="C378">
-        <v>0.03598843989905501</v>
+        <v>0.02581166581057354</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>19.73113462591721</v>
+        <v>18.41283924784645</v>
       </c>
       <c r="C379">
-        <v>0.00841959576780027</v>
+        <v>0.04807655967329418</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>18.01728901934623</v>
+        <v>18.1637172966272</v>
       </c>
       <c r="C380">
-        <v>0.02293178621344981</v>
+        <v>0.006859810418373522</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>18.66491740344099</v>
+        <v>18.79723700023403</v>
       </c>
       <c r="C381">
-        <v>0.01907011030541749</v>
+        <v>0.02323305862827174</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>18.98427711039193</v>
+        <v>18.72476090484324</v>
       </c>
       <c r="C382">
-        <v>0.02502798581877079</v>
+        <v>0.01754721353908201</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>19.01350211423747</v>
+        <v>19.97289484238122</v>
       </c>
       <c r="C383">
-        <v>0.0495584004352532</v>
+        <v>0.03506609652491828</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>18.02310253430197</v>
+        <v>18.27393070887511</v>
       </c>
       <c r="C384">
-        <v>0.02137387601509883</v>
+        <v>0.04622516338135858</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>19.24458327882095</v>
+        <v>19.5750165993854</v>
       </c>
       <c r="C385">
-        <v>0.01935375482054419</v>
+        <v>0.03572339229973299</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>19.96125762628523</v>
+        <v>19.71540565589244</v>
       </c>
       <c r="C386">
-        <v>0.006341438808958237</v>
+        <v>0.03594145199658071</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>18.57147605971262</v>
+        <v>19.8569463703429</v>
       </c>
       <c r="C387">
-        <v>0.03789295450706616</v>
+        <v>0.04385189532472731</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>18.02433967292497</v>
+        <v>18.74349062289921</v>
       </c>
       <c r="C388">
-        <v>0.04516640084775299</v>
+        <v>0.04931920352241668</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>18.78038172245437</v>
+        <v>19.38805549829719</v>
       </c>
       <c r="C389">
-        <v>0.01227834288354093</v>
+        <v>0.01675109062597193</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>18.28222366702459</v>
+        <v>19.72452953751154</v>
       </c>
       <c r="C390">
-        <v>0.01987072027885681</v>
+        <v>0.02229126398161612</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>18.38376164952818</v>
+        <v>19.44387814902874</v>
       </c>
       <c r="C391">
-        <v>0.03536541955554454</v>
+        <v>0.005063703986607742</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>18.16994410494479</v>
+        <v>18.49288877446678</v>
       </c>
       <c r="C392">
-        <v>0.03705497120122152</v>
+        <v>0.01966803622703142</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>18.69468028020153</v>
+        <v>18.31098115868337</v>
       </c>
       <c r="C393">
-        <v>0.02341579014072528</v>
+        <v>0.01996354991969288</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>19.66202286023803</v>
+        <v>18.02357557299236</v>
       </c>
       <c r="C394">
-        <v>0.04374497770384749</v>
+        <v>0.01979953265304171</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>18.88670367001396</v>
+        <v>19.87828528114281</v>
       </c>
       <c r="C395">
-        <v>0.02504814156382481</v>
+        <v>0.04748113482725271</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>19.66079728379447</v>
+        <v>18.88699906308508</v>
       </c>
       <c r="C396">
-        <v>0.03451135321610217</v>
+        <v>0.03428020465575003</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>19.59256093152508</v>
+        <v>19.07474515834897</v>
       </c>
       <c r="C397">
-        <v>0.006464398516759486</v>
+        <v>0.01130670443422756</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>19.35960665716813</v>
+        <v>19.21165583081106</v>
       </c>
       <c r="C398">
-        <v>0.04677943899903664</v>
+        <v>0.02673330428701682</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>19.50386602731741</v>
+        <v>19.30288700031932</v>
       </c>
       <c r="C399">
-        <v>0.0304320372398103</v>
+        <v>0.04552478412112199</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>19.38490840129006</v>
+        <v>19.61159237251157</v>
       </c>
       <c r="C400">
-        <v>0.0210772844402569</v>
+        <v>0.01688857251244606</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>19.82967129830149</v>
+        <v>18.16679113014878</v>
       </c>
       <c r="C401">
-        <v>0.0056165537686501</v>
+        <v>0.02893866052883049</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>19.71263206410528</v>
+        <v>19.07853190139455</v>
       </c>
       <c r="C402">
-        <v>0.02658728856620094</v>
+        <v>0.02120483611504864</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>18.31444538875728</v>
+        <v>18.12249338682113</v>
       </c>
       <c r="C403">
-        <v>0.04174594196216103</v>
+        <v>0.0486001904032593</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>18.27943825569389</v>
+        <v>18.1766978127614</v>
       </c>
       <c r="C404">
-        <v>0.04266293629109753</v>
+        <v>0.005568544360952904</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>18.93911403691747</v>
+        <v>19.57829892310917</v>
       </c>
       <c r="C405">
-        <v>0.01770703504452742</v>
+        <v>0.02190795850717488</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>19.22547281101629</v>
+        <v>18.6902425665036</v>
       </c>
       <c r="C406">
-        <v>0.01321665354957699</v>
+        <v>0.01973839845319786</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>19.56694617018718</v>
+        <v>19.73836794136487</v>
       </c>
       <c r="C407">
-        <v>0.008932098773532354</v>
+        <v>0.01586950387250688</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>19.13148830098647</v>
+        <v>18.51532101425569</v>
       </c>
       <c r="C408">
-        <v>0.04245123089305528</v>
+        <v>0.04346984524912497</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>18.60325050632851</v>
+        <v>18.29327304463905</v>
       </c>
       <c r="C409">
-        <v>0.02355084662838701</v>
+        <v>0.04358325969698649</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>18.49190301615487</v>
+        <v>18.5177343263766</v>
       </c>
       <c r="C410">
-        <v>0.007159928360370884</v>
+        <v>0.03841512220749903</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>18.71466201877901</v>
+        <v>19.51827965572777</v>
       </c>
       <c r="C411">
-        <v>0.04219698497742203</v>
+        <v>0.005788489010466831</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>19.47266786442903</v>
+        <v>19.61018620083289</v>
       </c>
       <c r="C412">
-        <v>0.01551350393557779</v>
+        <v>0.02928247468544609</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>18.07155619638739</v>
+        <v>18.35629400131546</v>
       </c>
       <c r="C413">
-        <v>0.0238484589208764</v>
+        <v>0.01940567592846321</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>19.64418424398659</v>
+        <v>18.15805997509104</v>
       </c>
       <c r="C414">
-        <v>0.04654921124055133</v>
+        <v>0.03575765666197364</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>19.07524114410269</v>
+        <v>19.22482578746518</v>
       </c>
       <c r="C415">
-        <v>0.01207341332967619</v>
+        <v>0.01218368779978911</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>18.77032469518887</v>
+        <v>18.54017123074153</v>
       </c>
       <c r="C416">
-        <v>0.00963352014369883</v>
+        <v>0.008129679305710572</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>19.13191097333115</v>
+        <v>19.60660456664588</v>
       </c>
       <c r="C417">
-        <v>0.02421494076448558</v>
+        <v>0.0230819049184507</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>19.90870929299014</v>
+        <v>18.03229496580216</v>
       </c>
       <c r="C418">
-        <v>0.02920689115615346</v>
+        <v>0.02642884834925601</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>18.26539087021212</v>
+        <v>19.53693089756524</v>
       </c>
       <c r="C419">
-        <v>0.0394109342972867</v>
+        <v>0.03421658346767441</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>18.15084770584572</v>
+        <v>18.52864894113255</v>
       </c>
       <c r="C420">
-        <v>0.03488020982388175</v>
+        <v>0.03674147107362561</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>18.36885063682589</v>
+        <v>18.84511590603119</v>
       </c>
       <c r="C421">
-        <v>0.04720656780452257</v>
+        <v>0.007955145707136976</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>19.77728990267656</v>
+        <v>19.09130313337278</v>
       </c>
       <c r="C422">
-        <v>0.01432594273061271</v>
+        <v>0.0296357459447212</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>19.69432375730569</v>
+        <v>18.42147929333025</v>
       </c>
       <c r="C423">
-        <v>0.04548702449616681</v>
+        <v>0.005262738620456715</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>18.11646234618869</v>
+        <v>18.0983174983951</v>
       </c>
       <c r="C424">
-        <v>0.0378480533653766</v>
+        <v>0.008795246956794671</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>18.38741145455737</v>
+        <v>19.09090855634122</v>
       </c>
       <c r="C425">
-        <v>0.02655124886874616</v>
+        <v>0.03195751324455177</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>19.43016202236989</v>
+        <v>18.93487129364954</v>
       </c>
       <c r="C426">
-        <v>0.01631189653447481</v>
+        <v>0.03508323812167197</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>19.0201927361577</v>
+        <v>18.58056596929658</v>
       </c>
       <c r="C427">
-        <v>0.01335171107638081</v>
+        <v>0.046721491239149</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>19.55898178164636</v>
+        <v>18.67845857668981</v>
       </c>
       <c r="C428">
-        <v>0.01734246876295308</v>
+        <v>0.007053241795732217</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>19.93058703615012</v>
+        <v>18.3537451646037</v>
       </c>
       <c r="C429">
-        <v>0.04792745877438791</v>
+        <v>0.0217454888313598</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>19.66271640713409</v>
+        <v>19.48347861401736</v>
       </c>
       <c r="C430">
-        <v>0.01742626825952532</v>
+        <v>0.03260010370962012</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>18.69485779395553</v>
+        <v>18.92510857299683</v>
       </c>
       <c r="C431">
-        <v>0.01205455402452708</v>
+        <v>0.0323854309372502</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>18.14150611028705</v>
+        <v>18.5835472956946</v>
       </c>
       <c r="C432">
-        <v>0.02395311047473269</v>
+        <v>0.03209479629069529</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>19.7914988714262</v>
+        <v>18.60866340496754</v>
       </c>
       <c r="C433">
-        <v>0.03586463784755958</v>
+        <v>0.03640408938569</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>18.2770581858427</v>
+        <v>19.78444807519549</v>
       </c>
       <c r="C434">
-        <v>0.01120771711835344</v>
+        <v>0.005475576019068253</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>18.78254687911106</v>
+        <v>18.96013435442513</v>
       </c>
       <c r="C435">
-        <v>0.01120048597854606</v>
+        <v>0.02088969531977602</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>18.06027225204089</v>
+        <v>18.02887887318342</v>
       </c>
       <c r="C436">
-        <v>0.0249795341976824</v>
+        <v>0.04745088103488306</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>18.1723145438537</v>
+        <v>18.34856010566273</v>
       </c>
       <c r="C437">
-        <v>0.018243525131286</v>
+        <v>0.008878979938788965</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>19.59085763578797</v>
+        <v>19.58155078289319</v>
       </c>
       <c r="C438">
-        <v>0.02829248498366977</v>
+        <v>0.007058979674681447</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>18.62759944464489</v>
+        <v>18.02256027607514</v>
       </c>
       <c r="C439">
-        <v>0.042140988603473</v>
+        <v>0.006287245671354108</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>18.64674846017701</v>
+        <v>19.90041715796877</v>
       </c>
       <c r="C440">
-        <v>0.009913393486274232</v>
+        <v>0.04773507612998717</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>18.72873232382172</v>
+        <v>18.03259902083263</v>
       </c>
       <c r="C441">
-        <v>0.01346780570746636</v>
+        <v>0.01477473703648723</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>18.1852099694317</v>
+        <v>19.6337512759731</v>
       </c>
       <c r="C442">
-        <v>0.02284304526422531</v>
+        <v>0.03500898117356643</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>18.73785823199131</v>
+        <v>19.18216616851297</v>
       </c>
       <c r="C443">
-        <v>0.04315575828070217</v>
+        <v>0.02817630720358021</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>19.3019308669546</v>
+        <v>18.22011194602196</v>
       </c>
       <c r="C444">
-        <v>0.02298950195286857</v>
+        <v>0.01883832160795962</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>18.29282231040742</v>
+        <v>18.9445077382892</v>
       </c>
       <c r="C445">
-        <v>0.04992739711219778</v>
+        <v>0.03684248464817683</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>18.25262464954391</v>
+        <v>19.49150234618714</v>
       </c>
       <c r="C446">
-        <v>0.0282240442018446</v>
+        <v>0.005499368766175768</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>19.06574814314348</v>
+        <v>19.89137800736741</v>
       </c>
       <c r="C447">
-        <v>0.03343467584581744</v>
+        <v>0.01563624172425627</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>18.23090330181186</v>
+        <v>18.20482486945501</v>
       </c>
       <c r="C448">
-        <v>0.03512215708913839</v>
+        <v>0.04031239510212548</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>19.96017222156574</v>
+        <v>18.40325190855654</v>
       </c>
       <c r="C449">
-        <v>0.009629140654316189</v>
+        <v>0.02408319595829991</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>19.97307435349091</v>
+        <v>18.85608367174522</v>
       </c>
       <c r="C450">
-        <v>0.04340656450447394</v>
+        <v>0.01341500535534921</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>19.67112106468792</v>
+        <v>18.31138764478582</v>
       </c>
       <c r="C451">
-        <v>0.01797919806484504</v>
+        <v>0.03518678757377754</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>18.40438628016056</v>
+        <v>18.1196497185865</v>
       </c>
       <c r="C452">
-        <v>0.006787496324393366</v>
+        <v>0.02994799422313882</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>19.92152685648825</v>
+        <v>19.65973914026277</v>
       </c>
       <c r="C453">
-        <v>0.0104045713277451</v>
+        <v>0.01528705207256132</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>18.98983968388852</v>
+        <v>18.41606866382688</v>
       </c>
       <c r="C454">
-        <v>0.02506469841049459</v>
+        <v>0.04828940229945387</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>18.9544495384234</v>
+        <v>18.97070531815218</v>
       </c>
       <c r="C455">
-        <v>0.01959688687783757</v>
+        <v>0.04821261835414657</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>19.47566482999236</v>
+        <v>18.82282758964816</v>
       </c>
       <c r="C456">
-        <v>0.03312055881230926</v>
+        <v>0.01889580980851299</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>18.36144499828023</v>
+        <v>19.85693619587881</v>
       </c>
       <c r="C457">
-        <v>0.01643896537085442</v>
+        <v>0.04360663857193697</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>19.60996661757232</v>
+        <v>18.02302721886018</v>
       </c>
       <c r="C458">
-        <v>0.01352072296546711</v>
+        <v>0.0379445213054888</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>18.41381591723221</v>
+        <v>19.44955647289174</v>
       </c>
       <c r="C459">
-        <v>0.01224657878167546</v>
+        <v>0.01633645266148704</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>18.48869598921471</v>
+        <v>18.92048921356778</v>
       </c>
       <c r="C460">
-        <v>0.01663011740996547</v>
+        <v>0.04409677058093335</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>19.11077685377901</v>
+        <v>19.20635584506194</v>
       </c>
       <c r="C461">
-        <v>0.0115459430910375</v>
+        <v>0.01247871974583658</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>19.39923315238544</v>
+        <v>19.44014162683093</v>
       </c>
       <c r="C462">
-        <v>0.02547709661620979</v>
+        <v>0.00898893059638884</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>18.75498436165888</v>
+        <v>18.83112632718866</v>
       </c>
       <c r="C463">
-        <v>0.01570351679171622</v>
+        <v>0.03778943165265159</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>19.16883099322592</v>
+        <v>18.44297146522715</v>
       </c>
       <c r="C464">
-        <v>0.007022405791839359</v>
+        <v>0.005940038776560661</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>18.93112311433615</v>
+        <v>18.45932885660146</v>
       </c>
       <c r="C465">
-        <v>0.02515672454456985</v>
+        <v>0.007820140918167325</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>18.54679248881422</v>
+        <v>18.30344825814578</v>
       </c>
       <c r="C466">
-        <v>0.04123366284377871</v>
+        <v>0.01519416425344949</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>18.88952185243485</v>
+        <v>18.69256143586164</v>
       </c>
       <c r="C467">
-        <v>0.01926264218680353</v>
+        <v>0.005992195870466111</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>19.28589146169983</v>
+        <v>18.45680935277949</v>
       </c>
       <c r="C468">
-        <v>0.03018344882331565</v>
+        <v>0.02395881038177943</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>19.2609892461616</v>
+        <v>19.08226590009631</v>
       </c>
       <c r="C469">
-        <v>0.01506687272753748</v>
+        <v>0.04286344143043469</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>18.79224817176481</v>
+        <v>18.6322998329036</v>
       </c>
       <c r="C470">
-        <v>0.02056836531076788</v>
+        <v>0.04820026435796344</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>18.24617696757744</v>
+        <v>19.95776933543868</v>
       </c>
       <c r="C471">
-        <v>0.01016577405071278</v>
+        <v>0.03162524330058533</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>18.51407257734839</v>
+        <v>19.67746593666818</v>
       </c>
       <c r="C472">
-        <v>0.01065084895909134</v>
+        <v>0.02337163566820557</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>18.72199240427537</v>
+        <v>18.74829897525467</v>
       </c>
       <c r="C473">
-        <v>0.04533867100407468</v>
+        <v>0.02608865768689791</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>19.17607972111804</v>
+        <v>18.55792522962936</v>
       </c>
       <c r="C474">
-        <v>0.02650764270563223</v>
+        <v>0.02171743722760125</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>18.61621263840359</v>
+        <v>18.40959897825805</v>
       </c>
       <c r="C475">
-        <v>0.008498898851894974</v>
+        <v>0.04093755359198092</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>19.90668814321396</v>
+        <v>19.29560523728035</v>
       </c>
       <c r="C476">
-        <v>0.03459094540414741</v>
+        <v>0.04975371071626332</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>18.83379910272329</v>
+        <v>19.8867125267664</v>
       </c>
       <c r="C477">
-        <v>0.03252057934028779</v>
+        <v>0.03970884049953072</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>18.48978928503431</v>
+        <v>19.78121063609156</v>
       </c>
       <c r="C478">
-        <v>0.04161237874969041</v>
+        <v>0.04314710692809029</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>19.15912329471726</v>
+        <v>19.1332676526009</v>
       </c>
       <c r="C479">
-        <v>0.008991718327150035</v>
+        <v>0.0242247528983666</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>19.36392292976441</v>
+        <v>19.91938029353702</v>
       </c>
       <c r="C480">
-        <v>0.02824745295490647</v>
+        <v>0.02566582388741379</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>19.55778106797407</v>
+        <v>18.50827655562478</v>
       </c>
       <c r="C481">
-        <v>0.04342400015281117</v>
+        <v>0.03816552360226935</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>19.60021979926232</v>
+        <v>18.65152615286669</v>
       </c>
       <c r="C482">
-        <v>0.04606591997542653</v>
+        <v>0.005277034763259662</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>19.23504237335144</v>
+        <v>19.11521370375515</v>
       </c>
       <c r="C483">
-        <v>0.007648382698154283</v>
+        <v>0.0494769030474522</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>18.77888793336781</v>
+        <v>18.85932841049145</v>
       </c>
       <c r="C484">
-        <v>0.006373733344241689</v>
+        <v>0.01613181542877257</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>18.56175309094872</v>
+        <v>19.41253180367983</v>
       </c>
       <c r="C485">
-        <v>0.04196872777980934</v>
+        <v>0.03785848820730118</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>19.36465910050934</v>
+        <v>19.82412298444122</v>
       </c>
       <c r="C486">
-        <v>0.01546058367615362</v>
+        <v>0.04631930613161806</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>18.69820035882353</v>
+        <v>19.41705170419096</v>
       </c>
       <c r="C487">
-        <v>0.01253406838405395</v>
+        <v>0.03197029476082407</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>18.28174678393214</v>
+        <v>19.42082228732656</v>
       </c>
       <c r="C488">
-        <v>0.04981669974117413</v>
+        <v>0.04827171913007325</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>19.07352456761283</v>
+        <v>19.17804423289432</v>
       </c>
       <c r="C489">
-        <v>0.04076564908299807</v>
+        <v>0.02631207024481211</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>19.55503252768861</v>
+        <v>19.09597433898706</v>
       </c>
       <c r="C490">
-        <v>0.0164007379162926</v>
+        <v>0.04377945712537894</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>18.80363468250579</v>
+        <v>18.68310427905758</v>
       </c>
       <c r="C491">
-        <v>0.006615064605010155</v>
+        <v>0.0148350636130083</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>19.11493345910086</v>
+        <v>18.19931347532527</v>
       </c>
       <c r="C492">
-        <v>0.02780367739896702</v>
+        <v>0.01839904390194389</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>18.87232106777613</v>
+        <v>18.53705861653534</v>
       </c>
       <c r="C493">
-        <v>0.02593713777684767</v>
+        <v>0.02491549946333492</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>19.30436165168129</v>
+        <v>19.97932192524283</v>
       </c>
       <c r="C494">
-        <v>0.04508035309944607</v>
+        <v>0.02419153007122</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>19.65201970248028</v>
+        <v>18.85018689904424</v>
       </c>
       <c r="C495">
-        <v>0.03603598933407859</v>
+        <v>0.006629645356427153</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>18.63596054661964</v>
+        <v>18.65068109177455</v>
       </c>
       <c r="C496">
-        <v>0.01095238126963628</v>
+        <v>0.03292438784732887</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>19.14262323305557</v>
+        <v>19.75454000574243</v>
       </c>
       <c r="C497">
-        <v>0.02208704977894185</v>
+        <v>0.02437098268218686</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>18.41376541565369</v>
+        <v>19.37991134278338</v>
       </c>
       <c r="C498">
-        <v>0.03575842390012939</v>
+        <v>0.01027790261685914</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>19.68604045396591</v>
+        <v>19.47511564740596</v>
       </c>
       <c r="C499">
-        <v>0.04951036815196234</v>
+        <v>0.009095519823769858</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>19.68511233137497</v>
+        <v>18.71040898010407</v>
       </c>
       <c r="C500">
-        <v>0.04480857552584278</v>
+        <v>0.04599970107331519</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>18.10881372651602</v>
+        <v>18.04982647008807</v>
       </c>
       <c r="C501">
-        <v>0.03259724261430504</v>
+        <v>0.04352556483200386</v>
       </c>
     </row>
   </sheetData>
